--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/Running Bill No 1 - Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/Running Bill No 1 - Sana Safinaz,DML,Lahore..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F765B-E216-4A4C-A44A-0E878DFDE24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28B05B-09B6-4C28-99E0-E8945F2D44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,12 @@
     <sheet name="HVAC" sheetId="2" r:id="rId2"/>
     <sheet name="FIRE" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="\\c">#REF!</definedName>
     <definedName name="\\x">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">FIRE!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$4:$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -2552,6 +2549,111 @@
     <xf numFmtId="38" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="24" fillId="7" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="24" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2704,111 +2806,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="24" fillId="7" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="24" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2831,26 +2828,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="J.Outlet HVAC &amp; FIRE Summary"/>
-      <sheetName val="J.Outlet HVAC BOQ"/>
-      <sheetName val="J.Outlet Fire BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3140,632 +3117,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE98180-1B59-4364-B81E-6D2FCB8A2360}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="136" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="106" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" style="106" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" style="106" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="106"/>
-    <col min="7" max="7" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="9.33203125" style="106"/>
-    <col min="257" max="257" width="17.1640625" style="106" customWidth="1"/>
-    <col min="258" max="258" width="63.83203125" style="106" customWidth="1"/>
-    <col min="259" max="260" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="29.83203125" style="106" customWidth="1"/>
-    <col min="262" max="262" width="9.33203125" style="106"/>
-    <col min="263" max="263" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="9.33203125" style="106"/>
-    <col min="513" max="513" width="17.1640625" style="106" customWidth="1"/>
-    <col min="514" max="514" width="63.83203125" style="106" customWidth="1"/>
-    <col min="515" max="516" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="29.83203125" style="106" customWidth="1"/>
-    <col min="518" max="518" width="9.33203125" style="106"/>
-    <col min="519" max="519" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="9.33203125" style="106"/>
-    <col min="769" max="769" width="17.1640625" style="106" customWidth="1"/>
-    <col min="770" max="770" width="63.83203125" style="106" customWidth="1"/>
-    <col min="771" max="772" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="29.83203125" style="106" customWidth="1"/>
-    <col min="774" max="774" width="9.33203125" style="106"/>
-    <col min="775" max="775" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="9.33203125" style="106"/>
-    <col min="1025" max="1025" width="17.1640625" style="106" customWidth="1"/>
-    <col min="1026" max="1026" width="63.83203125" style="106" customWidth="1"/>
-    <col min="1027" max="1028" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="29.83203125" style="106" customWidth="1"/>
-    <col min="1030" max="1030" width="9.33203125" style="106"/>
-    <col min="1031" max="1031" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="9.33203125" style="106"/>
-    <col min="1281" max="1281" width="17.1640625" style="106" customWidth="1"/>
-    <col min="1282" max="1282" width="63.83203125" style="106" customWidth="1"/>
-    <col min="1283" max="1284" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="29.83203125" style="106" customWidth="1"/>
-    <col min="1286" max="1286" width="9.33203125" style="106"/>
-    <col min="1287" max="1287" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="9.33203125" style="106"/>
-    <col min="1537" max="1537" width="17.1640625" style="106" customWidth="1"/>
-    <col min="1538" max="1538" width="63.83203125" style="106" customWidth="1"/>
-    <col min="1539" max="1540" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="29.83203125" style="106" customWidth="1"/>
-    <col min="1542" max="1542" width="9.33203125" style="106"/>
-    <col min="1543" max="1543" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="9.33203125" style="106"/>
-    <col min="1793" max="1793" width="17.1640625" style="106" customWidth="1"/>
-    <col min="1794" max="1794" width="63.83203125" style="106" customWidth="1"/>
-    <col min="1795" max="1796" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="29.83203125" style="106" customWidth="1"/>
-    <col min="1798" max="1798" width="9.33203125" style="106"/>
-    <col min="1799" max="1799" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="9.33203125" style="106"/>
-    <col min="2049" max="2049" width="17.1640625" style="106" customWidth="1"/>
-    <col min="2050" max="2050" width="63.83203125" style="106" customWidth="1"/>
-    <col min="2051" max="2052" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="29.83203125" style="106" customWidth="1"/>
-    <col min="2054" max="2054" width="9.33203125" style="106"/>
-    <col min="2055" max="2055" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="9.33203125" style="106"/>
-    <col min="2305" max="2305" width="17.1640625" style="106" customWidth="1"/>
-    <col min="2306" max="2306" width="63.83203125" style="106" customWidth="1"/>
-    <col min="2307" max="2308" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="29.83203125" style="106" customWidth="1"/>
-    <col min="2310" max="2310" width="9.33203125" style="106"/>
-    <col min="2311" max="2311" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="9.33203125" style="106"/>
-    <col min="2561" max="2561" width="17.1640625" style="106" customWidth="1"/>
-    <col min="2562" max="2562" width="63.83203125" style="106" customWidth="1"/>
-    <col min="2563" max="2564" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="29.83203125" style="106" customWidth="1"/>
-    <col min="2566" max="2566" width="9.33203125" style="106"/>
-    <col min="2567" max="2567" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="9.33203125" style="106"/>
-    <col min="2817" max="2817" width="17.1640625" style="106" customWidth="1"/>
-    <col min="2818" max="2818" width="63.83203125" style="106" customWidth="1"/>
-    <col min="2819" max="2820" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="29.83203125" style="106" customWidth="1"/>
-    <col min="2822" max="2822" width="9.33203125" style="106"/>
-    <col min="2823" max="2823" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="9.33203125" style="106"/>
-    <col min="3073" max="3073" width="17.1640625" style="106" customWidth="1"/>
-    <col min="3074" max="3074" width="63.83203125" style="106" customWidth="1"/>
-    <col min="3075" max="3076" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="29.83203125" style="106" customWidth="1"/>
-    <col min="3078" max="3078" width="9.33203125" style="106"/>
-    <col min="3079" max="3079" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="9.33203125" style="106"/>
-    <col min="3329" max="3329" width="17.1640625" style="106" customWidth="1"/>
-    <col min="3330" max="3330" width="63.83203125" style="106" customWidth="1"/>
-    <col min="3331" max="3332" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="29.83203125" style="106" customWidth="1"/>
-    <col min="3334" max="3334" width="9.33203125" style="106"/>
-    <col min="3335" max="3335" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="9.33203125" style="106"/>
-    <col min="3585" max="3585" width="17.1640625" style="106" customWidth="1"/>
-    <col min="3586" max="3586" width="63.83203125" style="106" customWidth="1"/>
-    <col min="3587" max="3588" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="29.83203125" style="106" customWidth="1"/>
-    <col min="3590" max="3590" width="9.33203125" style="106"/>
-    <col min="3591" max="3591" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="9.33203125" style="106"/>
-    <col min="3841" max="3841" width="17.1640625" style="106" customWidth="1"/>
-    <col min="3842" max="3842" width="63.83203125" style="106" customWidth="1"/>
-    <col min="3843" max="3844" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="29.83203125" style="106" customWidth="1"/>
-    <col min="3846" max="3846" width="9.33203125" style="106"/>
-    <col min="3847" max="3847" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="9.33203125" style="106"/>
-    <col min="4097" max="4097" width="17.1640625" style="106" customWidth="1"/>
-    <col min="4098" max="4098" width="63.83203125" style="106" customWidth="1"/>
-    <col min="4099" max="4100" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="29.83203125" style="106" customWidth="1"/>
-    <col min="4102" max="4102" width="9.33203125" style="106"/>
-    <col min="4103" max="4103" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="9.33203125" style="106"/>
-    <col min="4353" max="4353" width="17.1640625" style="106" customWidth="1"/>
-    <col min="4354" max="4354" width="63.83203125" style="106" customWidth="1"/>
-    <col min="4355" max="4356" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="29.83203125" style="106" customWidth="1"/>
-    <col min="4358" max="4358" width="9.33203125" style="106"/>
-    <col min="4359" max="4359" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="9.33203125" style="106"/>
-    <col min="4609" max="4609" width="17.1640625" style="106" customWidth="1"/>
-    <col min="4610" max="4610" width="63.83203125" style="106" customWidth="1"/>
-    <col min="4611" max="4612" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="29.83203125" style="106" customWidth="1"/>
-    <col min="4614" max="4614" width="9.33203125" style="106"/>
-    <col min="4615" max="4615" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="9.33203125" style="106"/>
-    <col min="4865" max="4865" width="17.1640625" style="106" customWidth="1"/>
-    <col min="4866" max="4866" width="63.83203125" style="106" customWidth="1"/>
-    <col min="4867" max="4868" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="29.83203125" style="106" customWidth="1"/>
-    <col min="4870" max="4870" width="9.33203125" style="106"/>
-    <col min="4871" max="4871" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="9.33203125" style="106"/>
-    <col min="5121" max="5121" width="17.1640625" style="106" customWidth="1"/>
-    <col min="5122" max="5122" width="63.83203125" style="106" customWidth="1"/>
-    <col min="5123" max="5124" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="29.83203125" style="106" customWidth="1"/>
-    <col min="5126" max="5126" width="9.33203125" style="106"/>
-    <col min="5127" max="5127" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="9.33203125" style="106"/>
-    <col min="5377" max="5377" width="17.1640625" style="106" customWidth="1"/>
-    <col min="5378" max="5378" width="63.83203125" style="106" customWidth="1"/>
-    <col min="5379" max="5380" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="29.83203125" style="106" customWidth="1"/>
-    <col min="5382" max="5382" width="9.33203125" style="106"/>
-    <col min="5383" max="5383" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="9.33203125" style="106"/>
-    <col min="5633" max="5633" width="17.1640625" style="106" customWidth="1"/>
-    <col min="5634" max="5634" width="63.83203125" style="106" customWidth="1"/>
-    <col min="5635" max="5636" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="29.83203125" style="106" customWidth="1"/>
-    <col min="5638" max="5638" width="9.33203125" style="106"/>
-    <col min="5639" max="5639" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="9.33203125" style="106"/>
-    <col min="5889" max="5889" width="17.1640625" style="106" customWidth="1"/>
-    <col min="5890" max="5890" width="63.83203125" style="106" customWidth="1"/>
-    <col min="5891" max="5892" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="29.83203125" style="106" customWidth="1"/>
-    <col min="5894" max="5894" width="9.33203125" style="106"/>
-    <col min="5895" max="5895" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="9.33203125" style="106"/>
-    <col min="6145" max="6145" width="17.1640625" style="106" customWidth="1"/>
-    <col min="6146" max="6146" width="63.83203125" style="106" customWidth="1"/>
-    <col min="6147" max="6148" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="29.83203125" style="106" customWidth="1"/>
-    <col min="6150" max="6150" width="9.33203125" style="106"/>
-    <col min="6151" max="6151" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="9.33203125" style="106"/>
-    <col min="6401" max="6401" width="17.1640625" style="106" customWidth="1"/>
-    <col min="6402" max="6402" width="63.83203125" style="106" customWidth="1"/>
-    <col min="6403" max="6404" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="29.83203125" style="106" customWidth="1"/>
-    <col min="6406" max="6406" width="9.33203125" style="106"/>
-    <col min="6407" max="6407" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="9.33203125" style="106"/>
-    <col min="6657" max="6657" width="17.1640625" style="106" customWidth="1"/>
-    <col min="6658" max="6658" width="63.83203125" style="106" customWidth="1"/>
-    <col min="6659" max="6660" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="29.83203125" style="106" customWidth="1"/>
-    <col min="6662" max="6662" width="9.33203125" style="106"/>
-    <col min="6663" max="6663" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="9.33203125" style="106"/>
-    <col min="6913" max="6913" width="17.1640625" style="106" customWidth="1"/>
-    <col min="6914" max="6914" width="63.83203125" style="106" customWidth="1"/>
-    <col min="6915" max="6916" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="29.83203125" style="106" customWidth="1"/>
-    <col min="6918" max="6918" width="9.33203125" style="106"/>
-    <col min="6919" max="6919" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="9.33203125" style="106"/>
-    <col min="7169" max="7169" width="17.1640625" style="106" customWidth="1"/>
-    <col min="7170" max="7170" width="63.83203125" style="106" customWidth="1"/>
-    <col min="7171" max="7172" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="29.83203125" style="106" customWidth="1"/>
-    <col min="7174" max="7174" width="9.33203125" style="106"/>
-    <col min="7175" max="7175" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="9.33203125" style="106"/>
-    <col min="7425" max="7425" width="17.1640625" style="106" customWidth="1"/>
-    <col min="7426" max="7426" width="63.83203125" style="106" customWidth="1"/>
-    <col min="7427" max="7428" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="29.83203125" style="106" customWidth="1"/>
-    <col min="7430" max="7430" width="9.33203125" style="106"/>
-    <col min="7431" max="7431" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="9.33203125" style="106"/>
-    <col min="7681" max="7681" width="17.1640625" style="106" customWidth="1"/>
-    <col min="7682" max="7682" width="63.83203125" style="106" customWidth="1"/>
-    <col min="7683" max="7684" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="29.83203125" style="106" customWidth="1"/>
-    <col min="7686" max="7686" width="9.33203125" style="106"/>
-    <col min="7687" max="7687" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="9.33203125" style="106"/>
-    <col min="7937" max="7937" width="17.1640625" style="106" customWidth="1"/>
-    <col min="7938" max="7938" width="63.83203125" style="106" customWidth="1"/>
-    <col min="7939" max="7940" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="29.83203125" style="106" customWidth="1"/>
-    <col min="7942" max="7942" width="9.33203125" style="106"/>
-    <col min="7943" max="7943" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="9.33203125" style="106"/>
-    <col min="8193" max="8193" width="17.1640625" style="106" customWidth="1"/>
-    <col min="8194" max="8194" width="63.83203125" style="106" customWidth="1"/>
-    <col min="8195" max="8196" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="29.83203125" style="106" customWidth="1"/>
-    <col min="8198" max="8198" width="9.33203125" style="106"/>
-    <col min="8199" max="8199" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="9.33203125" style="106"/>
-    <col min="8449" max="8449" width="17.1640625" style="106" customWidth="1"/>
-    <col min="8450" max="8450" width="63.83203125" style="106" customWidth="1"/>
-    <col min="8451" max="8452" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="29.83203125" style="106" customWidth="1"/>
-    <col min="8454" max="8454" width="9.33203125" style="106"/>
-    <col min="8455" max="8455" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="9.33203125" style="106"/>
-    <col min="8705" max="8705" width="17.1640625" style="106" customWidth="1"/>
-    <col min="8706" max="8706" width="63.83203125" style="106" customWidth="1"/>
-    <col min="8707" max="8708" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="29.83203125" style="106" customWidth="1"/>
-    <col min="8710" max="8710" width="9.33203125" style="106"/>
-    <col min="8711" max="8711" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="9.33203125" style="106"/>
-    <col min="8961" max="8961" width="17.1640625" style="106" customWidth="1"/>
-    <col min="8962" max="8962" width="63.83203125" style="106" customWidth="1"/>
-    <col min="8963" max="8964" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="29.83203125" style="106" customWidth="1"/>
-    <col min="8966" max="8966" width="9.33203125" style="106"/>
-    <col min="8967" max="8967" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="9.33203125" style="106"/>
-    <col min="9217" max="9217" width="17.1640625" style="106" customWidth="1"/>
-    <col min="9218" max="9218" width="63.83203125" style="106" customWidth="1"/>
-    <col min="9219" max="9220" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="29.83203125" style="106" customWidth="1"/>
-    <col min="9222" max="9222" width="9.33203125" style="106"/>
-    <col min="9223" max="9223" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="9.33203125" style="106"/>
-    <col min="9473" max="9473" width="17.1640625" style="106" customWidth="1"/>
-    <col min="9474" max="9474" width="63.83203125" style="106" customWidth="1"/>
-    <col min="9475" max="9476" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="29.83203125" style="106" customWidth="1"/>
-    <col min="9478" max="9478" width="9.33203125" style="106"/>
-    <col min="9479" max="9479" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="9.33203125" style="106"/>
-    <col min="9729" max="9729" width="17.1640625" style="106" customWidth="1"/>
-    <col min="9730" max="9730" width="63.83203125" style="106" customWidth="1"/>
-    <col min="9731" max="9732" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="29.83203125" style="106" customWidth="1"/>
-    <col min="9734" max="9734" width="9.33203125" style="106"/>
-    <col min="9735" max="9735" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="9.33203125" style="106"/>
-    <col min="9985" max="9985" width="17.1640625" style="106" customWidth="1"/>
-    <col min="9986" max="9986" width="63.83203125" style="106" customWidth="1"/>
-    <col min="9987" max="9988" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="29.83203125" style="106" customWidth="1"/>
-    <col min="9990" max="9990" width="9.33203125" style="106"/>
-    <col min="9991" max="9991" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="9.33203125" style="106"/>
-    <col min="10241" max="10241" width="17.1640625" style="106" customWidth="1"/>
-    <col min="10242" max="10242" width="63.83203125" style="106" customWidth="1"/>
-    <col min="10243" max="10244" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="29.83203125" style="106" customWidth="1"/>
-    <col min="10246" max="10246" width="9.33203125" style="106"/>
-    <col min="10247" max="10247" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="9.33203125" style="106"/>
-    <col min="10497" max="10497" width="17.1640625" style="106" customWidth="1"/>
-    <col min="10498" max="10498" width="63.83203125" style="106" customWidth="1"/>
-    <col min="10499" max="10500" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="29.83203125" style="106" customWidth="1"/>
-    <col min="10502" max="10502" width="9.33203125" style="106"/>
-    <col min="10503" max="10503" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="9.33203125" style="106"/>
-    <col min="10753" max="10753" width="17.1640625" style="106" customWidth="1"/>
-    <col min="10754" max="10754" width="63.83203125" style="106" customWidth="1"/>
-    <col min="10755" max="10756" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="29.83203125" style="106" customWidth="1"/>
-    <col min="10758" max="10758" width="9.33203125" style="106"/>
-    <col min="10759" max="10759" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="9.33203125" style="106"/>
-    <col min="11009" max="11009" width="17.1640625" style="106" customWidth="1"/>
-    <col min="11010" max="11010" width="63.83203125" style="106" customWidth="1"/>
-    <col min="11011" max="11012" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="29.83203125" style="106" customWidth="1"/>
-    <col min="11014" max="11014" width="9.33203125" style="106"/>
-    <col min="11015" max="11015" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="9.33203125" style="106"/>
-    <col min="11265" max="11265" width="17.1640625" style="106" customWidth="1"/>
-    <col min="11266" max="11266" width="63.83203125" style="106" customWidth="1"/>
-    <col min="11267" max="11268" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="29.83203125" style="106" customWidth="1"/>
-    <col min="11270" max="11270" width="9.33203125" style="106"/>
-    <col min="11271" max="11271" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="9.33203125" style="106"/>
-    <col min="11521" max="11521" width="17.1640625" style="106" customWidth="1"/>
-    <col min="11522" max="11522" width="63.83203125" style="106" customWidth="1"/>
-    <col min="11523" max="11524" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="29.83203125" style="106" customWidth="1"/>
-    <col min="11526" max="11526" width="9.33203125" style="106"/>
-    <col min="11527" max="11527" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="9.33203125" style="106"/>
-    <col min="11777" max="11777" width="17.1640625" style="106" customWidth="1"/>
-    <col min="11778" max="11778" width="63.83203125" style="106" customWidth="1"/>
-    <col min="11779" max="11780" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="29.83203125" style="106" customWidth="1"/>
-    <col min="11782" max="11782" width="9.33203125" style="106"/>
-    <col min="11783" max="11783" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="9.33203125" style="106"/>
-    <col min="12033" max="12033" width="17.1640625" style="106" customWidth="1"/>
-    <col min="12034" max="12034" width="63.83203125" style="106" customWidth="1"/>
-    <col min="12035" max="12036" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="29.83203125" style="106" customWidth="1"/>
-    <col min="12038" max="12038" width="9.33203125" style="106"/>
-    <col min="12039" max="12039" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="9.33203125" style="106"/>
-    <col min="12289" max="12289" width="17.1640625" style="106" customWidth="1"/>
-    <col min="12290" max="12290" width="63.83203125" style="106" customWidth="1"/>
-    <col min="12291" max="12292" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="29.83203125" style="106" customWidth="1"/>
-    <col min="12294" max="12294" width="9.33203125" style="106"/>
-    <col min="12295" max="12295" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="9.33203125" style="106"/>
-    <col min="12545" max="12545" width="17.1640625" style="106" customWidth="1"/>
-    <col min="12546" max="12546" width="63.83203125" style="106" customWidth="1"/>
-    <col min="12547" max="12548" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="29.83203125" style="106" customWidth="1"/>
-    <col min="12550" max="12550" width="9.33203125" style="106"/>
-    <col min="12551" max="12551" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="9.33203125" style="106"/>
-    <col min="12801" max="12801" width="17.1640625" style="106" customWidth="1"/>
-    <col min="12802" max="12802" width="63.83203125" style="106" customWidth="1"/>
-    <col min="12803" max="12804" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="29.83203125" style="106" customWidth="1"/>
-    <col min="12806" max="12806" width="9.33203125" style="106"/>
-    <col min="12807" max="12807" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="9.33203125" style="106"/>
-    <col min="13057" max="13057" width="17.1640625" style="106" customWidth="1"/>
-    <col min="13058" max="13058" width="63.83203125" style="106" customWidth="1"/>
-    <col min="13059" max="13060" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="29.83203125" style="106" customWidth="1"/>
-    <col min="13062" max="13062" width="9.33203125" style="106"/>
-    <col min="13063" max="13063" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="9.33203125" style="106"/>
-    <col min="13313" max="13313" width="17.1640625" style="106" customWidth="1"/>
-    <col min="13314" max="13314" width="63.83203125" style="106" customWidth="1"/>
-    <col min="13315" max="13316" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="29.83203125" style="106" customWidth="1"/>
-    <col min="13318" max="13318" width="9.33203125" style="106"/>
-    <col min="13319" max="13319" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="9.33203125" style="106"/>
-    <col min="13569" max="13569" width="17.1640625" style="106" customWidth="1"/>
-    <col min="13570" max="13570" width="63.83203125" style="106" customWidth="1"/>
-    <col min="13571" max="13572" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="29.83203125" style="106" customWidth="1"/>
-    <col min="13574" max="13574" width="9.33203125" style="106"/>
-    <col min="13575" max="13575" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="9.33203125" style="106"/>
-    <col min="13825" max="13825" width="17.1640625" style="106" customWidth="1"/>
-    <col min="13826" max="13826" width="63.83203125" style="106" customWidth="1"/>
-    <col min="13827" max="13828" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="29.83203125" style="106" customWidth="1"/>
-    <col min="13830" max="13830" width="9.33203125" style="106"/>
-    <col min="13831" max="13831" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="9.33203125" style="106"/>
-    <col min="14081" max="14081" width="17.1640625" style="106" customWidth="1"/>
-    <col min="14082" max="14082" width="63.83203125" style="106" customWidth="1"/>
-    <col min="14083" max="14084" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="29.83203125" style="106" customWidth="1"/>
-    <col min="14086" max="14086" width="9.33203125" style="106"/>
-    <col min="14087" max="14087" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="9.33203125" style="106"/>
-    <col min="14337" max="14337" width="17.1640625" style="106" customWidth="1"/>
-    <col min="14338" max="14338" width="63.83203125" style="106" customWidth="1"/>
-    <col min="14339" max="14340" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="29.83203125" style="106" customWidth="1"/>
-    <col min="14342" max="14342" width="9.33203125" style="106"/>
-    <col min="14343" max="14343" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="9.33203125" style="106"/>
-    <col min="14593" max="14593" width="17.1640625" style="106" customWidth="1"/>
-    <col min="14594" max="14594" width="63.83203125" style="106" customWidth="1"/>
-    <col min="14595" max="14596" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="29.83203125" style="106" customWidth="1"/>
-    <col min="14598" max="14598" width="9.33203125" style="106"/>
-    <col min="14599" max="14599" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="9.33203125" style="106"/>
-    <col min="14849" max="14849" width="17.1640625" style="106" customWidth="1"/>
-    <col min="14850" max="14850" width="63.83203125" style="106" customWidth="1"/>
-    <col min="14851" max="14852" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="29.83203125" style="106" customWidth="1"/>
-    <col min="14854" max="14854" width="9.33203125" style="106"/>
-    <col min="14855" max="14855" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="9.33203125" style="106"/>
-    <col min="15105" max="15105" width="17.1640625" style="106" customWidth="1"/>
-    <col min="15106" max="15106" width="63.83203125" style="106" customWidth="1"/>
-    <col min="15107" max="15108" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="29.83203125" style="106" customWidth="1"/>
-    <col min="15110" max="15110" width="9.33203125" style="106"/>
-    <col min="15111" max="15111" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="9.33203125" style="106"/>
-    <col min="15361" max="15361" width="17.1640625" style="106" customWidth="1"/>
-    <col min="15362" max="15362" width="63.83203125" style="106" customWidth="1"/>
-    <col min="15363" max="15364" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="29.83203125" style="106" customWidth="1"/>
-    <col min="15366" max="15366" width="9.33203125" style="106"/>
-    <col min="15367" max="15367" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="9.33203125" style="106"/>
-    <col min="15617" max="15617" width="17.1640625" style="106" customWidth="1"/>
-    <col min="15618" max="15618" width="63.83203125" style="106" customWidth="1"/>
-    <col min="15619" max="15620" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="29.83203125" style="106" customWidth="1"/>
-    <col min="15622" max="15622" width="9.33203125" style="106"/>
-    <col min="15623" max="15623" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="9.33203125" style="106"/>
-    <col min="15873" max="15873" width="17.1640625" style="106" customWidth="1"/>
-    <col min="15874" max="15874" width="63.83203125" style="106" customWidth="1"/>
-    <col min="15875" max="15876" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="29.83203125" style="106" customWidth="1"/>
-    <col min="15878" max="15878" width="9.33203125" style="106"/>
-    <col min="15879" max="15879" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="9.33203125" style="106"/>
-    <col min="16129" max="16129" width="17.1640625" style="106" customWidth="1"/>
-    <col min="16130" max="16130" width="63.83203125" style="106" customWidth="1"/>
-    <col min="16131" max="16132" width="0" style="106" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="29.83203125" style="106" customWidth="1"/>
-    <col min="16134" max="16134" width="9.33203125" style="106"/>
-    <col min="16135" max="16135" width="19.83203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="9.33203125" style="106"/>
+    <col min="1" max="1" width="17.1640625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="55" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" style="55" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="55"/>
+    <col min="7" max="7" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="256" width="9.33203125" style="55"/>
+    <col min="257" max="257" width="17.1640625" style="55" customWidth="1"/>
+    <col min="258" max="258" width="63.83203125" style="55" customWidth="1"/>
+    <col min="259" max="260" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="29.83203125" style="55" customWidth="1"/>
+    <col min="262" max="262" width="9.33203125" style="55"/>
+    <col min="263" max="263" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="264" max="512" width="9.33203125" style="55"/>
+    <col min="513" max="513" width="17.1640625" style="55" customWidth="1"/>
+    <col min="514" max="514" width="63.83203125" style="55" customWidth="1"/>
+    <col min="515" max="516" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="29.83203125" style="55" customWidth="1"/>
+    <col min="518" max="518" width="9.33203125" style="55"/>
+    <col min="519" max="519" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="520" max="768" width="9.33203125" style="55"/>
+    <col min="769" max="769" width="17.1640625" style="55" customWidth="1"/>
+    <col min="770" max="770" width="63.83203125" style="55" customWidth="1"/>
+    <col min="771" max="772" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="29.83203125" style="55" customWidth="1"/>
+    <col min="774" max="774" width="9.33203125" style="55"/>
+    <col min="775" max="775" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="776" max="1024" width="9.33203125" style="55"/>
+    <col min="1025" max="1025" width="17.1640625" style="55" customWidth="1"/>
+    <col min="1026" max="1026" width="63.83203125" style="55" customWidth="1"/>
+    <col min="1027" max="1028" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="29.83203125" style="55" customWidth="1"/>
+    <col min="1030" max="1030" width="9.33203125" style="55"/>
+    <col min="1031" max="1031" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1280" width="9.33203125" style="55"/>
+    <col min="1281" max="1281" width="17.1640625" style="55" customWidth="1"/>
+    <col min="1282" max="1282" width="63.83203125" style="55" customWidth="1"/>
+    <col min="1283" max="1284" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="29.83203125" style="55" customWidth="1"/>
+    <col min="1286" max="1286" width="9.33203125" style="55"/>
+    <col min="1287" max="1287" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1536" width="9.33203125" style="55"/>
+    <col min="1537" max="1537" width="17.1640625" style="55" customWidth="1"/>
+    <col min="1538" max="1538" width="63.83203125" style="55" customWidth="1"/>
+    <col min="1539" max="1540" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="29.83203125" style="55" customWidth="1"/>
+    <col min="1542" max="1542" width="9.33203125" style="55"/>
+    <col min="1543" max="1543" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1792" width="9.33203125" style="55"/>
+    <col min="1793" max="1793" width="17.1640625" style="55" customWidth="1"/>
+    <col min="1794" max="1794" width="63.83203125" style="55" customWidth="1"/>
+    <col min="1795" max="1796" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="29.83203125" style="55" customWidth="1"/>
+    <col min="1798" max="1798" width="9.33203125" style="55"/>
+    <col min="1799" max="1799" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1800" max="2048" width="9.33203125" style="55"/>
+    <col min="2049" max="2049" width="17.1640625" style="55" customWidth="1"/>
+    <col min="2050" max="2050" width="63.83203125" style="55" customWidth="1"/>
+    <col min="2051" max="2052" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="29.83203125" style="55" customWidth="1"/>
+    <col min="2054" max="2054" width="9.33203125" style="55"/>
+    <col min="2055" max="2055" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2304" width="9.33203125" style="55"/>
+    <col min="2305" max="2305" width="17.1640625" style="55" customWidth="1"/>
+    <col min="2306" max="2306" width="63.83203125" style="55" customWidth="1"/>
+    <col min="2307" max="2308" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="29.83203125" style="55" customWidth="1"/>
+    <col min="2310" max="2310" width="9.33203125" style="55"/>
+    <col min="2311" max="2311" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2560" width="9.33203125" style="55"/>
+    <col min="2561" max="2561" width="17.1640625" style="55" customWidth="1"/>
+    <col min="2562" max="2562" width="63.83203125" style="55" customWidth="1"/>
+    <col min="2563" max="2564" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="29.83203125" style="55" customWidth="1"/>
+    <col min="2566" max="2566" width="9.33203125" style="55"/>
+    <col min="2567" max="2567" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2816" width="9.33203125" style="55"/>
+    <col min="2817" max="2817" width="17.1640625" style="55" customWidth="1"/>
+    <col min="2818" max="2818" width="63.83203125" style="55" customWidth="1"/>
+    <col min="2819" max="2820" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="29.83203125" style="55" customWidth="1"/>
+    <col min="2822" max="2822" width="9.33203125" style="55"/>
+    <col min="2823" max="2823" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2824" max="3072" width="9.33203125" style="55"/>
+    <col min="3073" max="3073" width="17.1640625" style="55" customWidth="1"/>
+    <col min="3074" max="3074" width="63.83203125" style="55" customWidth="1"/>
+    <col min="3075" max="3076" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="29.83203125" style="55" customWidth="1"/>
+    <col min="3078" max="3078" width="9.33203125" style="55"/>
+    <col min="3079" max="3079" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3328" width="9.33203125" style="55"/>
+    <col min="3329" max="3329" width="17.1640625" style="55" customWidth="1"/>
+    <col min="3330" max="3330" width="63.83203125" style="55" customWidth="1"/>
+    <col min="3331" max="3332" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="29.83203125" style="55" customWidth="1"/>
+    <col min="3334" max="3334" width="9.33203125" style="55"/>
+    <col min="3335" max="3335" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3584" width="9.33203125" style="55"/>
+    <col min="3585" max="3585" width="17.1640625" style="55" customWidth="1"/>
+    <col min="3586" max="3586" width="63.83203125" style="55" customWidth="1"/>
+    <col min="3587" max="3588" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="29.83203125" style="55" customWidth="1"/>
+    <col min="3590" max="3590" width="9.33203125" style="55"/>
+    <col min="3591" max="3591" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3840" width="9.33203125" style="55"/>
+    <col min="3841" max="3841" width="17.1640625" style="55" customWidth="1"/>
+    <col min="3842" max="3842" width="63.83203125" style="55" customWidth="1"/>
+    <col min="3843" max="3844" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="29.83203125" style="55" customWidth="1"/>
+    <col min="3846" max="3846" width="9.33203125" style="55"/>
+    <col min="3847" max="3847" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3848" max="4096" width="9.33203125" style="55"/>
+    <col min="4097" max="4097" width="17.1640625" style="55" customWidth="1"/>
+    <col min="4098" max="4098" width="63.83203125" style="55" customWidth="1"/>
+    <col min="4099" max="4100" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="29.83203125" style="55" customWidth="1"/>
+    <col min="4102" max="4102" width="9.33203125" style="55"/>
+    <col min="4103" max="4103" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4352" width="9.33203125" style="55"/>
+    <col min="4353" max="4353" width="17.1640625" style="55" customWidth="1"/>
+    <col min="4354" max="4354" width="63.83203125" style="55" customWidth="1"/>
+    <col min="4355" max="4356" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="29.83203125" style="55" customWidth="1"/>
+    <col min="4358" max="4358" width="9.33203125" style="55"/>
+    <col min="4359" max="4359" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4608" width="9.33203125" style="55"/>
+    <col min="4609" max="4609" width="17.1640625" style="55" customWidth="1"/>
+    <col min="4610" max="4610" width="63.83203125" style="55" customWidth="1"/>
+    <col min="4611" max="4612" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="29.83203125" style="55" customWidth="1"/>
+    <col min="4614" max="4614" width="9.33203125" style="55"/>
+    <col min="4615" max="4615" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4864" width="9.33203125" style="55"/>
+    <col min="4865" max="4865" width="17.1640625" style="55" customWidth="1"/>
+    <col min="4866" max="4866" width="63.83203125" style="55" customWidth="1"/>
+    <col min="4867" max="4868" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="29.83203125" style="55" customWidth="1"/>
+    <col min="4870" max="4870" width="9.33203125" style="55"/>
+    <col min="4871" max="4871" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4872" max="5120" width="9.33203125" style="55"/>
+    <col min="5121" max="5121" width="17.1640625" style="55" customWidth="1"/>
+    <col min="5122" max="5122" width="63.83203125" style="55" customWidth="1"/>
+    <col min="5123" max="5124" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="29.83203125" style="55" customWidth="1"/>
+    <col min="5126" max="5126" width="9.33203125" style="55"/>
+    <col min="5127" max="5127" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5376" width="9.33203125" style="55"/>
+    <col min="5377" max="5377" width="17.1640625" style="55" customWidth="1"/>
+    <col min="5378" max="5378" width="63.83203125" style="55" customWidth="1"/>
+    <col min="5379" max="5380" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="29.83203125" style="55" customWidth="1"/>
+    <col min="5382" max="5382" width="9.33203125" style="55"/>
+    <col min="5383" max="5383" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5632" width="9.33203125" style="55"/>
+    <col min="5633" max="5633" width="17.1640625" style="55" customWidth="1"/>
+    <col min="5634" max="5634" width="63.83203125" style="55" customWidth="1"/>
+    <col min="5635" max="5636" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="29.83203125" style="55" customWidth="1"/>
+    <col min="5638" max="5638" width="9.33203125" style="55"/>
+    <col min="5639" max="5639" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5888" width="9.33203125" style="55"/>
+    <col min="5889" max="5889" width="17.1640625" style="55" customWidth="1"/>
+    <col min="5890" max="5890" width="63.83203125" style="55" customWidth="1"/>
+    <col min="5891" max="5892" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="29.83203125" style="55" customWidth="1"/>
+    <col min="5894" max="5894" width="9.33203125" style="55"/>
+    <col min="5895" max="5895" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5896" max="6144" width="9.33203125" style="55"/>
+    <col min="6145" max="6145" width="17.1640625" style="55" customWidth="1"/>
+    <col min="6146" max="6146" width="63.83203125" style="55" customWidth="1"/>
+    <col min="6147" max="6148" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="29.83203125" style="55" customWidth="1"/>
+    <col min="6150" max="6150" width="9.33203125" style="55"/>
+    <col min="6151" max="6151" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6400" width="9.33203125" style="55"/>
+    <col min="6401" max="6401" width="17.1640625" style="55" customWidth="1"/>
+    <col min="6402" max="6402" width="63.83203125" style="55" customWidth="1"/>
+    <col min="6403" max="6404" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="29.83203125" style="55" customWidth="1"/>
+    <col min="6406" max="6406" width="9.33203125" style="55"/>
+    <col min="6407" max="6407" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6656" width="9.33203125" style="55"/>
+    <col min="6657" max="6657" width="17.1640625" style="55" customWidth="1"/>
+    <col min="6658" max="6658" width="63.83203125" style="55" customWidth="1"/>
+    <col min="6659" max="6660" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="29.83203125" style="55" customWidth="1"/>
+    <col min="6662" max="6662" width="9.33203125" style="55"/>
+    <col min="6663" max="6663" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6912" width="9.33203125" style="55"/>
+    <col min="6913" max="6913" width="17.1640625" style="55" customWidth="1"/>
+    <col min="6914" max="6914" width="63.83203125" style="55" customWidth="1"/>
+    <col min="6915" max="6916" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="29.83203125" style="55" customWidth="1"/>
+    <col min="6918" max="6918" width="9.33203125" style="55"/>
+    <col min="6919" max="6919" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6920" max="7168" width="9.33203125" style="55"/>
+    <col min="7169" max="7169" width="17.1640625" style="55" customWidth="1"/>
+    <col min="7170" max="7170" width="63.83203125" style="55" customWidth="1"/>
+    <col min="7171" max="7172" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="29.83203125" style="55" customWidth="1"/>
+    <col min="7174" max="7174" width="9.33203125" style="55"/>
+    <col min="7175" max="7175" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7424" width="9.33203125" style="55"/>
+    <col min="7425" max="7425" width="17.1640625" style="55" customWidth="1"/>
+    <col min="7426" max="7426" width="63.83203125" style="55" customWidth="1"/>
+    <col min="7427" max="7428" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="29.83203125" style="55" customWidth="1"/>
+    <col min="7430" max="7430" width="9.33203125" style="55"/>
+    <col min="7431" max="7431" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7680" width="9.33203125" style="55"/>
+    <col min="7681" max="7681" width="17.1640625" style="55" customWidth="1"/>
+    <col min="7682" max="7682" width="63.83203125" style="55" customWidth="1"/>
+    <col min="7683" max="7684" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="29.83203125" style="55" customWidth="1"/>
+    <col min="7686" max="7686" width="9.33203125" style="55"/>
+    <col min="7687" max="7687" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7936" width="9.33203125" style="55"/>
+    <col min="7937" max="7937" width="17.1640625" style="55" customWidth="1"/>
+    <col min="7938" max="7938" width="63.83203125" style="55" customWidth="1"/>
+    <col min="7939" max="7940" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="29.83203125" style="55" customWidth="1"/>
+    <col min="7942" max="7942" width="9.33203125" style="55"/>
+    <col min="7943" max="7943" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7944" max="8192" width="9.33203125" style="55"/>
+    <col min="8193" max="8193" width="17.1640625" style="55" customWidth="1"/>
+    <col min="8194" max="8194" width="63.83203125" style="55" customWidth="1"/>
+    <col min="8195" max="8196" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="29.83203125" style="55" customWidth="1"/>
+    <col min="8198" max="8198" width="9.33203125" style="55"/>
+    <col min="8199" max="8199" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8448" width="9.33203125" style="55"/>
+    <col min="8449" max="8449" width="17.1640625" style="55" customWidth="1"/>
+    <col min="8450" max="8450" width="63.83203125" style="55" customWidth="1"/>
+    <col min="8451" max="8452" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="29.83203125" style="55" customWidth="1"/>
+    <col min="8454" max="8454" width="9.33203125" style="55"/>
+    <col min="8455" max="8455" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8704" width="9.33203125" style="55"/>
+    <col min="8705" max="8705" width="17.1640625" style="55" customWidth="1"/>
+    <col min="8706" max="8706" width="63.83203125" style="55" customWidth="1"/>
+    <col min="8707" max="8708" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="29.83203125" style="55" customWidth="1"/>
+    <col min="8710" max="8710" width="9.33203125" style="55"/>
+    <col min="8711" max="8711" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8960" width="9.33203125" style="55"/>
+    <col min="8961" max="8961" width="17.1640625" style="55" customWidth="1"/>
+    <col min="8962" max="8962" width="63.83203125" style="55" customWidth="1"/>
+    <col min="8963" max="8964" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="29.83203125" style="55" customWidth="1"/>
+    <col min="8966" max="8966" width="9.33203125" style="55"/>
+    <col min="8967" max="8967" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8968" max="9216" width="9.33203125" style="55"/>
+    <col min="9217" max="9217" width="17.1640625" style="55" customWidth="1"/>
+    <col min="9218" max="9218" width="63.83203125" style="55" customWidth="1"/>
+    <col min="9219" max="9220" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="29.83203125" style="55" customWidth="1"/>
+    <col min="9222" max="9222" width="9.33203125" style="55"/>
+    <col min="9223" max="9223" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9472" width="9.33203125" style="55"/>
+    <col min="9473" max="9473" width="17.1640625" style="55" customWidth="1"/>
+    <col min="9474" max="9474" width="63.83203125" style="55" customWidth="1"/>
+    <col min="9475" max="9476" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="29.83203125" style="55" customWidth="1"/>
+    <col min="9478" max="9478" width="9.33203125" style="55"/>
+    <col min="9479" max="9479" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9728" width="9.33203125" style="55"/>
+    <col min="9729" max="9729" width="17.1640625" style="55" customWidth="1"/>
+    <col min="9730" max="9730" width="63.83203125" style="55" customWidth="1"/>
+    <col min="9731" max="9732" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="29.83203125" style="55" customWidth="1"/>
+    <col min="9734" max="9734" width="9.33203125" style="55"/>
+    <col min="9735" max="9735" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9984" width="9.33203125" style="55"/>
+    <col min="9985" max="9985" width="17.1640625" style="55" customWidth="1"/>
+    <col min="9986" max="9986" width="63.83203125" style="55" customWidth="1"/>
+    <col min="9987" max="9988" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="29.83203125" style="55" customWidth="1"/>
+    <col min="9990" max="9990" width="9.33203125" style="55"/>
+    <col min="9991" max="9991" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9992" max="10240" width="9.33203125" style="55"/>
+    <col min="10241" max="10241" width="17.1640625" style="55" customWidth="1"/>
+    <col min="10242" max="10242" width="63.83203125" style="55" customWidth="1"/>
+    <col min="10243" max="10244" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="29.83203125" style="55" customWidth="1"/>
+    <col min="10246" max="10246" width="9.33203125" style="55"/>
+    <col min="10247" max="10247" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10496" width="9.33203125" style="55"/>
+    <col min="10497" max="10497" width="17.1640625" style="55" customWidth="1"/>
+    <col min="10498" max="10498" width="63.83203125" style="55" customWidth="1"/>
+    <col min="10499" max="10500" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="29.83203125" style="55" customWidth="1"/>
+    <col min="10502" max="10502" width="9.33203125" style="55"/>
+    <col min="10503" max="10503" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10752" width="9.33203125" style="55"/>
+    <col min="10753" max="10753" width="17.1640625" style="55" customWidth="1"/>
+    <col min="10754" max="10754" width="63.83203125" style="55" customWidth="1"/>
+    <col min="10755" max="10756" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="29.83203125" style="55" customWidth="1"/>
+    <col min="10758" max="10758" width="9.33203125" style="55"/>
+    <col min="10759" max="10759" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10760" max="11008" width="9.33203125" style="55"/>
+    <col min="11009" max="11009" width="17.1640625" style="55" customWidth="1"/>
+    <col min="11010" max="11010" width="63.83203125" style="55" customWidth="1"/>
+    <col min="11011" max="11012" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="29.83203125" style="55" customWidth="1"/>
+    <col min="11014" max="11014" width="9.33203125" style="55"/>
+    <col min="11015" max="11015" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11264" width="9.33203125" style="55"/>
+    <col min="11265" max="11265" width="17.1640625" style="55" customWidth="1"/>
+    <col min="11266" max="11266" width="63.83203125" style="55" customWidth="1"/>
+    <col min="11267" max="11268" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="29.83203125" style="55" customWidth="1"/>
+    <col min="11270" max="11270" width="9.33203125" style="55"/>
+    <col min="11271" max="11271" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11520" width="9.33203125" style="55"/>
+    <col min="11521" max="11521" width="17.1640625" style="55" customWidth="1"/>
+    <col min="11522" max="11522" width="63.83203125" style="55" customWidth="1"/>
+    <col min="11523" max="11524" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="29.83203125" style="55" customWidth="1"/>
+    <col min="11526" max="11526" width="9.33203125" style="55"/>
+    <col min="11527" max="11527" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11776" width="9.33203125" style="55"/>
+    <col min="11777" max="11777" width="17.1640625" style="55" customWidth="1"/>
+    <col min="11778" max="11778" width="63.83203125" style="55" customWidth="1"/>
+    <col min="11779" max="11780" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="29.83203125" style="55" customWidth="1"/>
+    <col min="11782" max="11782" width="9.33203125" style="55"/>
+    <col min="11783" max="11783" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11784" max="12032" width="9.33203125" style="55"/>
+    <col min="12033" max="12033" width="17.1640625" style="55" customWidth="1"/>
+    <col min="12034" max="12034" width="63.83203125" style="55" customWidth="1"/>
+    <col min="12035" max="12036" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="29.83203125" style="55" customWidth="1"/>
+    <col min="12038" max="12038" width="9.33203125" style="55"/>
+    <col min="12039" max="12039" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12288" width="9.33203125" style="55"/>
+    <col min="12289" max="12289" width="17.1640625" style="55" customWidth="1"/>
+    <col min="12290" max="12290" width="63.83203125" style="55" customWidth="1"/>
+    <col min="12291" max="12292" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="29.83203125" style="55" customWidth="1"/>
+    <col min="12294" max="12294" width="9.33203125" style="55"/>
+    <col min="12295" max="12295" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12544" width="9.33203125" style="55"/>
+    <col min="12545" max="12545" width="17.1640625" style="55" customWidth="1"/>
+    <col min="12546" max="12546" width="63.83203125" style="55" customWidth="1"/>
+    <col min="12547" max="12548" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="29.83203125" style="55" customWidth="1"/>
+    <col min="12550" max="12550" width="9.33203125" style="55"/>
+    <col min="12551" max="12551" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12800" width="9.33203125" style="55"/>
+    <col min="12801" max="12801" width="17.1640625" style="55" customWidth="1"/>
+    <col min="12802" max="12802" width="63.83203125" style="55" customWidth="1"/>
+    <col min="12803" max="12804" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="29.83203125" style="55" customWidth="1"/>
+    <col min="12806" max="12806" width="9.33203125" style="55"/>
+    <col min="12807" max="12807" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12808" max="13056" width="9.33203125" style="55"/>
+    <col min="13057" max="13057" width="17.1640625" style="55" customWidth="1"/>
+    <col min="13058" max="13058" width="63.83203125" style="55" customWidth="1"/>
+    <col min="13059" max="13060" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="29.83203125" style="55" customWidth="1"/>
+    <col min="13062" max="13062" width="9.33203125" style="55"/>
+    <col min="13063" max="13063" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13312" width="9.33203125" style="55"/>
+    <col min="13313" max="13313" width="17.1640625" style="55" customWidth="1"/>
+    <col min="13314" max="13314" width="63.83203125" style="55" customWidth="1"/>
+    <col min="13315" max="13316" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="29.83203125" style="55" customWidth="1"/>
+    <col min="13318" max="13318" width="9.33203125" style="55"/>
+    <col min="13319" max="13319" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13568" width="9.33203125" style="55"/>
+    <col min="13569" max="13569" width="17.1640625" style="55" customWidth="1"/>
+    <col min="13570" max="13570" width="63.83203125" style="55" customWidth="1"/>
+    <col min="13571" max="13572" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="29.83203125" style="55" customWidth="1"/>
+    <col min="13574" max="13574" width="9.33203125" style="55"/>
+    <col min="13575" max="13575" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13824" width="9.33203125" style="55"/>
+    <col min="13825" max="13825" width="17.1640625" style="55" customWidth="1"/>
+    <col min="13826" max="13826" width="63.83203125" style="55" customWidth="1"/>
+    <col min="13827" max="13828" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="29.83203125" style="55" customWidth="1"/>
+    <col min="13830" max="13830" width="9.33203125" style="55"/>
+    <col min="13831" max="13831" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13832" max="14080" width="9.33203125" style="55"/>
+    <col min="14081" max="14081" width="17.1640625" style="55" customWidth="1"/>
+    <col min="14082" max="14082" width="63.83203125" style="55" customWidth="1"/>
+    <col min="14083" max="14084" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="29.83203125" style="55" customWidth="1"/>
+    <col min="14086" max="14086" width="9.33203125" style="55"/>
+    <col min="14087" max="14087" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14336" width="9.33203125" style="55"/>
+    <col min="14337" max="14337" width="17.1640625" style="55" customWidth="1"/>
+    <col min="14338" max="14338" width="63.83203125" style="55" customWidth="1"/>
+    <col min="14339" max="14340" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="29.83203125" style="55" customWidth="1"/>
+    <col min="14342" max="14342" width="9.33203125" style="55"/>
+    <col min="14343" max="14343" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14592" width="9.33203125" style="55"/>
+    <col min="14593" max="14593" width="17.1640625" style="55" customWidth="1"/>
+    <col min="14594" max="14594" width="63.83203125" style="55" customWidth="1"/>
+    <col min="14595" max="14596" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="29.83203125" style="55" customWidth="1"/>
+    <col min="14598" max="14598" width="9.33203125" style="55"/>
+    <col min="14599" max="14599" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14848" width="9.33203125" style="55"/>
+    <col min="14849" max="14849" width="17.1640625" style="55" customWidth="1"/>
+    <col min="14850" max="14850" width="63.83203125" style="55" customWidth="1"/>
+    <col min="14851" max="14852" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="29.83203125" style="55" customWidth="1"/>
+    <col min="14854" max="14854" width="9.33203125" style="55"/>
+    <col min="14855" max="14855" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14856" max="15104" width="9.33203125" style="55"/>
+    <col min="15105" max="15105" width="17.1640625" style="55" customWidth="1"/>
+    <col min="15106" max="15106" width="63.83203125" style="55" customWidth="1"/>
+    <col min="15107" max="15108" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="29.83203125" style="55" customWidth="1"/>
+    <col min="15110" max="15110" width="9.33203125" style="55"/>
+    <col min="15111" max="15111" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15360" width="9.33203125" style="55"/>
+    <col min="15361" max="15361" width="17.1640625" style="55" customWidth="1"/>
+    <col min="15362" max="15362" width="63.83203125" style="55" customWidth="1"/>
+    <col min="15363" max="15364" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="29.83203125" style="55" customWidth="1"/>
+    <col min="15366" max="15366" width="9.33203125" style="55"/>
+    <col min="15367" max="15367" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15616" width="9.33203125" style="55"/>
+    <col min="15617" max="15617" width="17.1640625" style="55" customWidth="1"/>
+    <col min="15618" max="15618" width="63.83203125" style="55" customWidth="1"/>
+    <col min="15619" max="15620" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="29.83203125" style="55" customWidth="1"/>
+    <col min="15622" max="15622" width="9.33203125" style="55"/>
+    <col min="15623" max="15623" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15872" width="9.33203125" style="55"/>
+    <col min="15873" max="15873" width="17.1640625" style="55" customWidth="1"/>
+    <col min="15874" max="15874" width="63.83203125" style="55" customWidth="1"/>
+    <col min="15875" max="15876" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="29.83203125" style="55" customWidth="1"/>
+    <col min="15878" max="15878" width="9.33203125" style="55"/>
+    <col min="15879" max="15879" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15880" max="16128" width="9.33203125" style="55"/>
+    <col min="16129" max="16129" width="17.1640625" style="55" customWidth="1"/>
+    <col min="16130" max="16130" width="63.83203125" style="55" customWidth="1"/>
+    <col min="16131" max="16132" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="29.83203125" style="55" customWidth="1"/>
+    <col min="16134" max="16134" width="9.33203125" style="55"/>
+    <col min="16135" max="16135" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16384" width="9.33203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="108"/>
-    </row>
-    <row r="3" spans="1:6" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108"/>
-    </row>
-    <row r="4" spans="1:6" s="106" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-    </row>
-    <row r="5" spans="1:6" s="106" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-    </row>
-    <row r="6" spans="1:6" s="106" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
-    </row>
-    <row r="7" spans="1:6" s="106" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-    </row>
-    <row r="8" spans="1:6" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="111" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-    </row>
-    <row r="9" spans="1:6" s="106" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="112"/>
-    </row>
-    <row r="10" spans="1:6" s="117" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="106" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118">
-        <v>1</v>
-      </c>
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65">
+        <v>1</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69">
         <f>HVAC!K62</f>
-        <v>5049520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="106" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118">
+        <v>5875840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65">
         <v>2</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="122">
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="69">
         <f>FIRE!K49</f>
-        <v>1929232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="106" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+        <v>3116102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130">
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77">
         <f>SUM(E11:E12)</f>
-        <v>6978752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="106" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="109"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-    </row>
-    <row r="15" spans="1:6" s="135" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-    </row>
-    <row r="16" spans="1:6" s="106" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="109"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-    </row>
-    <row r="17" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-    </row>
-    <row r="18" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-    </row>
-    <row r="19" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="136"/>
-    </row>
-    <row r="20" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
-    </row>
-    <row r="21" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="136"/>
+        <v>8991942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3786,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3806,48 +3768,48 @@
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="60" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="63" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="99"/>
+      <c r="I5" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="101"/>
+      <c r="K5" s="102" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="41" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
@@ -3872,15 +3834,15 @@
       <c r="J6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="68"/>
+      <c r="K6" s="103"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3946,12 +3908,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3961,12 +3923,12 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4012,23 +3974,23 @@
         <v>100</v>
       </c>
       <c r="G13" s="49">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H13" s="49">
         <f>G13*E13</f>
-        <v>48000</v>
+        <v>34800</v>
       </c>
       <c r="I13" s="49">
         <f>G13</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J13" s="50">
         <f>I13*F13</f>
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="K13" s="50">
         <f>J13+H13</f>
-        <v>56000</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="165" x14ac:dyDescent="0.2">
@@ -4068,23 +4030,23 @@
         <v>200</v>
       </c>
       <c r="G15" s="49">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="H15" s="49">
         <f>G15*E15</f>
-        <v>103500</v>
+        <v>333500</v>
       </c>
       <c r="I15" s="49">
         <f>G15</f>
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="J15" s="50">
         <f>I15*F15</f>
-        <v>18000</v>
+        <v>58000</v>
       </c>
       <c r="K15" s="50">
         <f>J15+H15</f>
-        <v>121500</v>
+        <v>391500</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -4141,23 +4103,23 @@
         <v>100</v>
       </c>
       <c r="G18" s="49">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="H18" s="49">
         <f>G18*E18</f>
-        <v>49500</v>
+        <v>145000</v>
       </c>
       <c r="I18" s="49">
         <f>G18</f>
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="J18" s="50">
         <f>I18*F18</f>
-        <v>9900</v>
+        <v>29000</v>
       </c>
       <c r="K18" s="50">
         <f>J18+H18</f>
-        <v>59400</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -4270,23 +4232,23 @@
         <v>2000</v>
       </c>
       <c r="G23" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="49">
         <f>G23*E23</f>
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f>G23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="50">
         <f>I23*F23</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="50">
         <f>J23+H23</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4587,12 +4549,12 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -4602,12 +4564,12 @@
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4653,23 +4615,23 @@
         <v>80</v>
       </c>
       <c r="G36" s="49">
-        <v>2942</v>
+        <v>3344</v>
       </c>
       <c r="H36" s="49">
         <f t="shared" ref="H36:H37" si="4">G36*E36</f>
-        <v>1441580</v>
+        <v>1638560</v>
       </c>
       <c r="I36" s="49">
         <f t="shared" ref="I36:I37" si="5">G36</f>
-        <v>2942</v>
+        <v>3344</v>
       </c>
       <c r="J36" s="50">
         <f t="shared" ref="J36:J37" si="6">I36*F36</f>
-        <v>235360</v>
+        <v>267520</v>
       </c>
       <c r="K36" s="50">
         <f t="shared" ref="K36:K37" si="7">J36+H36</f>
-        <v>1676940</v>
+        <v>1906080</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4691,7 +4653,9 @@
       <c r="F37" s="16">
         <v>80</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="49">
+        <v>0</v>
+      </c>
       <c r="H37" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4824,23 +4788,23 @@
         <v>60</v>
       </c>
       <c r="G41" s="49">
-        <v>2942</v>
+        <v>3344</v>
       </c>
       <c r="H41" s="49">
         <f>G41*E41</f>
-        <v>1706360</v>
+        <v>1939520</v>
       </c>
       <c r="I41" s="49">
         <f>G41</f>
-        <v>2942</v>
+        <v>3344</v>
       </c>
       <c r="J41" s="50">
         <f>I41*F41</f>
-        <v>176520</v>
+        <v>200640</v>
       </c>
       <c r="K41" s="50">
         <f>J41+H41</f>
-        <v>1882880</v>
+        <v>2140160</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -4951,23 +4915,23 @@
         <v>750</v>
       </c>
       <c r="G46" s="49">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H46" s="49">
         <f t="shared" si="12"/>
-        <v>232500</v>
+        <v>195000</v>
       </c>
       <c r="I46" s="49">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J46" s="50">
         <f t="shared" si="14"/>
-        <v>23250</v>
+        <v>19500</v>
       </c>
       <c r="K46" s="50">
         <f t="shared" si="15"/>
-        <v>255750</v>
+        <v>214500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -5007,23 +4971,23 @@
         <v>2000</v>
       </c>
       <c r="G48" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H48" s="49">
         <f t="shared" ref="H48:H49" si="16">G48*E48</f>
-        <v>13500</v>
+        <v>81000</v>
       </c>
       <c r="I48" s="49">
         <f t="shared" ref="I48:I49" si="17">G48</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J48" s="50">
         <f t="shared" ref="J48:J49" si="18">I48*F48</f>
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K48" s="50">
         <f t="shared" ref="K48:K49" si="19">J48+H48</f>
-        <v>15500</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5046,23 +5010,23 @@
         <v>1000</v>
       </c>
       <c r="G49" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="16"/>
-        <v>9250</v>
+        <v>18500</v>
       </c>
       <c r="I49" s="49">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="50">
         <f t="shared" si="18"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K49" s="50">
         <f t="shared" si="19"/>
-        <v>10250</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5102,32 +5066,32 @@
         <v>1000</v>
       </c>
       <c r="G51" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="49">
         <f>G51*E51</f>
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="I51" s="49">
         <f>G51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="50">
         <f>I51*F51</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K51" s="50">
         <f>J51+H51</f>
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -5137,12 +5101,12 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="115"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5171,23 +5135,23 @@
         <v>3000</v>
       </c>
       <c r="G54" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="49">
         <f t="shared" ref="H54:H57" si="20">G54*E54</f>
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="I54" s="49">
         <f t="shared" ref="I54:I57" si="21">G54</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="50">
         <f t="shared" ref="J54:J57" si="22">I54*F54</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K54" s="50">
         <f t="shared" ref="K54:K57" si="23">J54+H54</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5248,22 +5212,24 @@
       <c r="F56" s="16">
         <v>5000</v>
       </c>
-      <c r="G56" s="49"/>
+      <c r="G56" s="49">
+        <v>1</v>
+      </c>
       <c r="H56" s="49">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I56" s="49">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="50">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K56" s="50">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5382,12 +5348,12 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -5397,25 +5363,25 @@
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="83"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="118"/>
     </row>
     <row r="62" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="109"/>
       <c r="E62" s="7"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5424,7 +5390,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="20">
         <f>SUM(K7:K59)</f>
-        <v>5049520</v>
+        <v>5875840</v>
       </c>
     </row>
     <row r="65" spans="6:14" x14ac:dyDescent="0.2">
@@ -5516,8 +5482,8 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="B4:B6"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="79" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="79" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5525,14 +5491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575ABACB-5F9D-4B06-B65D-8E17CB415728}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="22" customWidth="1"/>
     <col min="4" max="4" width="8" style="22" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="22" customWidth="1"/>
@@ -5545,48 +5511,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="63" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="102" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
@@ -5611,15 +5577,15 @@
       <c r="J3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -5707,12 +5673,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -5722,12 +5688,12 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -5756,23 +5722,23 @@
         <v>600</v>
       </c>
       <c r="G9" s="49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="49">
         <f>G9*E9</f>
-        <v>51000</v>
+        <v>55250</v>
       </c>
       <c r="I9" s="49">
         <f>G9</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="50">
         <f>I9*F9</f>
-        <v>7200</v>
+        <v>7800</v>
       </c>
       <c r="K9" s="50">
         <f>J9+H9</f>
-        <v>58200</v>
+        <v>63050</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
@@ -5815,12 +5781,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -5830,12 +5796,12 @@
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -5844,7 +5810,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>1</v>
       </c>
@@ -5881,23 +5847,23 @@
         <v>150</v>
       </c>
       <c r="G14" s="49">
-        <v>538</v>
+        <v>900</v>
       </c>
       <c r="H14" s="49">
         <f t="shared" ref="H14:H19" si="0">G14*E14</f>
-        <v>349700</v>
+        <v>585000</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ref="I14:I19" si="1">G14</f>
-        <v>538</v>
+        <v>900</v>
       </c>
       <c r="J14" s="50">
         <f t="shared" ref="J14:J19" si="2">I14*F14</f>
-        <v>80700</v>
+        <v>135000</v>
       </c>
       <c r="K14" s="50">
         <f t="shared" ref="K14:K19" si="3">J14+H14</f>
-        <v>430400</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5920,23 +5886,23 @@
         <v>200</v>
       </c>
       <c r="G15" s="49">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="0"/>
-        <v>21875</v>
+        <v>30625</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J15" s="50">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="K15" s="50">
         <f t="shared" si="3"/>
-        <v>26875</v>
+        <v>37625</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5959,23 +5925,23 @@
         <v>250</v>
       </c>
       <c r="G16" s="49">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="H16" s="49">
         <f t="shared" si="0"/>
-        <v>55440</v>
+        <v>193050</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="J16" s="50">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>48750</v>
       </c>
       <c r="K16" s="50">
         <f t="shared" si="3"/>
-        <v>69440</v>
+        <v>241800</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5998,23 +5964,23 @@
         <v>300</v>
       </c>
       <c r="G17" s="49">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="0"/>
-        <v>33150</v>
+        <v>51000</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J17" s="50">
         <f t="shared" si="2"/>
-        <v>7800</v>
+        <v>12000</v>
       </c>
       <c r="K17" s="50">
         <f t="shared" si="3"/>
-        <v>40950</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6037,23 +6003,23 @@
         <v>350</v>
       </c>
       <c r="G18" s="49">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="0"/>
-        <v>56265</v>
+        <v>157905</v>
       </c>
       <c r="I18" s="49">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="J18" s="50">
         <f t="shared" si="2"/>
-        <v>10850</v>
+        <v>30450</v>
       </c>
       <c r="K18" s="50">
         <f t="shared" si="3"/>
-        <v>67115</v>
+        <v>188355</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6076,25 +6042,25 @@
         <v>400</v>
       </c>
       <c r="G19" s="49">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="H19" s="49">
         <f t="shared" si="0"/>
-        <v>80580</v>
+        <v>616200</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="J19" s="50">
         <f t="shared" si="2"/>
-        <v>13600</v>
+        <v>104000</v>
       </c>
       <c r="K19" s="50">
         <f t="shared" si="3"/>
-        <v>94180</v>
-      </c>
-      <c r="M19" s="102" t="s">
+        <v>720200</v>
+      </c>
+      <c r="M19" s="51" t="s">
         <v>124</v>
       </c>
       <c r="O19" s="29">
@@ -6138,26 +6104,26 @@
         <v>2000</v>
       </c>
       <c r="G21" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="49">
         <f>G21*E21</f>
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f>G21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="50">
         <f>I21*F21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="50">
         <f>J21+H21</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="29" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="29" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>3</v>
       </c>
@@ -6655,12 +6621,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -6670,12 +6636,12 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -6684,7 +6650,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
     </row>
-    <row r="39" spans="1:11" s="29" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="29" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -6724,12 +6690,12 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -6739,12 +6705,12 @@
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -6831,7 +6797,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>3</v>
       </c>
@@ -6870,7 +6836,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>4</v>
       </c>
@@ -6909,7 +6875,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="29" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>5</v>
       </c>
@@ -6943,12 +6909,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="133"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
@@ -6958,25 +6924,25 @@
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="101"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="136"/>
     </row>
     <row r="49" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="24"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -6985,7 +6951,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="20">
         <f>SUM(K4:K46)</f>
-        <v>1929232</v>
+        <v>3116102</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -7028,6 +6994,6 @@
     <mergeCell ref="A48:K48"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/Running Bill No 1 - Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/Running Bill No 1 - Sana Safinaz,DML,Lahore..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28B05B-09B6-4C28-99E0-E8945F2D44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016789AE-F040-449D-9A42-EF9B7208BB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="\\c">#REF!</definedName>
     <definedName name="\\x">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">FIRE!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">FIRE!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$4:$6</definedName>
@@ -1822,7 +1823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2222,6 +2223,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2231,9 +2265,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2246,9 +2278,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2261,9 +2291,7 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2276,8 +2304,19 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2286,7 +2325,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -2297,7 +2336,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -2312,25 +2351,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2340,20 +2364,24 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2362,20 +2390,22 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -2395,7 +2425,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2576,236 +2606,245 @@
     <xf numFmtId="40" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="17" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="24" fillId="7" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="17" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="24" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="40" fontId="24" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="24" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="28" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="28" fillId="7" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="17" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="17" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="17" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="19" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3117,21 +3156,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE98180-1B59-4364-B81E-6D2FCB8A2360}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="69" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="55" customWidth="1"/>
     <col min="3" max="4" width="21.6640625" style="55" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" style="55" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="55"/>
     <col min="7" max="7" width="19.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="9.33203125" style="55"/>
+    <col min="8" max="8" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="256" width="9.33203125" style="55"/>
     <col min="257" max="257" width="17.1640625" style="55" customWidth="1"/>
     <col min="258" max="258" width="63.83203125" style="55" customWidth="1"/>
     <col min="259" max="260" width="0" style="55" hidden="1" customWidth="1"/>
@@ -3575,7 +3615,7 @@
     <col min="16136" max="16384" width="9.33203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>138</v>
       </c>
@@ -3586,7 +3626,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>126</v>
       </c>
@@ -3595,134 +3635,137 @@
       <c r="D2" s="53"/>
       <c r="E2" s="57"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="57"/>
     </row>
-    <row r="4" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
     </row>
-    <row r="7" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="54"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:6" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:8" s="60" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="127" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65">
-        <v>1</v>
-      </c>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="130">
+        <v>1</v>
+      </c>
+      <c r="B11" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69">
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134">
         <f>HVAC!K62</f>
-        <v>5875840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+        <v>4853317.7043829998</v>
+      </c>
+      <c r="H11" s="123"/>
+    </row>
+    <row r="12" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="135">
         <v>2</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="69">
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139">
         <f>FIRE!K49</f>
-        <v>3116102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+        <v>2527563.8152599996</v>
+      </c>
+      <c r="H12" s="123"/>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="129">
         <f>SUM(E11:E12)</f>
-        <v>8991942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7380881.5196429994</v>
+      </c>
+      <c r="H13" s="123"/>
+    </row>
+    <row r="14" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
     </row>
-    <row r="15" spans="1:6" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+    </row>
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -3749,7 +3792,7 @@
   <dimension ref="A3:N75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3768,48 +3811,48 @@
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="95" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="98" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100" t="s">
+      <c r="H5" s="97"/>
+      <c r="I5" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="100" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="41" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
@@ -3834,15 +3877,15 @@
       <c r="J6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="103"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3882,17 +3925,17 @@
         <v>5</v>
       </c>
       <c r="E9" s="16">
-        <v>15000</v>
+        <v>12389.677997655657</v>
       </c>
       <c r="F9" s="16">
-        <v>15000</v>
+        <v>12389.677997655657</v>
       </c>
       <c r="G9" s="49">
         <v>2</v>
       </c>
       <c r="H9" s="49">
         <f>G9*E9</f>
-        <v>30000</v>
+        <v>24779.355995311314</v>
       </c>
       <c r="I9" s="49">
         <f>G9</f>
@@ -3900,20 +3943,20 @@
       </c>
       <c r="J9" s="50">
         <f>I9*F9</f>
-        <v>30000</v>
+        <v>24779.355995311314</v>
       </c>
       <c r="K9" s="50">
         <f>J9+H9</f>
-        <v>60000</v>
+        <v>49558.711990622629</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3923,12 +3966,12 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3968,17 +4011,17 @@
         <v>8</v>
       </c>
       <c r="E13" s="16">
-        <v>600</v>
+        <v>495.58711990622629</v>
       </c>
       <c r="F13" s="16">
-        <v>100</v>
+        <v>82.597853317704391</v>
       </c>
       <c r="G13" s="49">
         <v>58</v>
       </c>
       <c r="H13" s="49">
         <f>G13*E13</f>
-        <v>34800</v>
+        <v>28744.052954561124</v>
       </c>
       <c r="I13" s="49">
         <f>G13</f>
@@ -3986,11 +4029,11 @@
       </c>
       <c r="J13" s="50">
         <f>I13*F13</f>
-        <v>5800</v>
+        <v>4790.6754924268544</v>
       </c>
       <c r="K13" s="50">
         <f>J13+H13</f>
-        <v>40600</v>
+        <v>33534.728446987981</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="165" x14ac:dyDescent="0.2">
@@ -4024,17 +4067,17 @@
         <v>8</v>
       </c>
       <c r="E15" s="16">
-        <v>1150</v>
+        <v>949.87531315360047</v>
       </c>
       <c r="F15" s="16">
-        <v>200</v>
+        <v>165.19570663540878</v>
       </c>
       <c r="G15" s="49">
         <v>290</v>
       </c>
       <c r="H15" s="49">
         <f>G15*E15</f>
-        <v>333500</v>
+        <v>275463.84081454412</v>
       </c>
       <c r="I15" s="49">
         <f>G15</f>
@@ -4042,11 +4085,11 @@
       </c>
       <c r="J15" s="50">
         <f>I15*F15</f>
-        <v>58000</v>
+        <v>47906.754924268549</v>
       </c>
       <c r="K15" s="50">
         <f>J15+H15</f>
-        <v>391500</v>
+        <v>323370.5957388127</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -4097,17 +4140,17 @@
         <v>12</v>
       </c>
       <c r="E18" s="16">
-        <v>500</v>
+        <v>412.9892665885219</v>
       </c>
       <c r="F18" s="16">
-        <v>100</v>
+        <v>82.597853317704391</v>
       </c>
       <c r="G18" s="49">
         <v>290</v>
       </c>
       <c r="H18" s="49">
         <f>G18*E18</f>
-        <v>145000</v>
+        <v>119766.88731067136</v>
       </c>
       <c r="I18" s="49">
         <f>G18</f>
@@ -4115,11 +4158,11 @@
       </c>
       <c r="J18" s="50">
         <f>I18*F18</f>
-        <v>29000</v>
+        <v>23953.377462134275</v>
       </c>
       <c r="K18" s="50">
         <f>J18+H18</f>
-        <v>174000</v>
+        <v>143720.26477280562</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="105" x14ac:dyDescent="0.2">
@@ -4170,17 +4213,17 @@
         <v>5</v>
       </c>
       <c r="E21" s="16">
-        <v>18000</v>
+        <v>14867.61359718679</v>
       </c>
       <c r="F21" s="16">
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="G21" s="49">
         <v>4</v>
       </c>
       <c r="H21" s="49">
         <f>G21*E21</f>
-        <v>72000</v>
+        <v>59470.454388747159</v>
       </c>
       <c r="I21" s="49">
         <f>G21</f>
@@ -4188,11 +4231,11 @@
       </c>
       <c r="J21" s="50">
         <f>I21*F21</f>
-        <v>8000</v>
+        <v>6607.8282654163504</v>
       </c>
       <c r="K21" s="50">
         <f>J21+H21</f>
-        <v>80000</v>
+        <v>66078.282654163515</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4204,8 +4247,12 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -4226,10 +4273,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="16">
-        <v>23000</v>
+        <v>18997.506263072009</v>
       </c>
       <c r="F23" s="16">
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="G23" s="49">
         <v>0</v>
@@ -4260,8 +4307,12 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -4282,17 +4333,17 @@
         <v>5</v>
       </c>
       <c r="E25" s="16">
-        <v>17500</v>
+        <v>14454.624330598268</v>
       </c>
       <c r="F25" s="16">
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="G25" s="49">
         <v>2</v>
       </c>
       <c r="H25" s="49">
         <f>G25*E25</f>
-        <v>35000</v>
+        <v>28909.248661196536</v>
       </c>
       <c r="I25" s="49">
         <f>G25</f>
@@ -4300,11 +4351,11 @@
       </c>
       <c r="J25" s="50">
         <f>I25*F25</f>
-        <v>4000</v>
+        <v>3303.9141327081752</v>
       </c>
       <c r="K25" s="50">
         <f>J25+H25</f>
-        <v>39000</v>
+        <v>32213.16279390471</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4316,17 +4367,15 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
       <c r="G26" s="49"/>
-      <c r="H26" s="49">
-        <f>G26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="49">
-        <f>G26</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="50">
         <f>I26*F26</f>
         <v>0</v>
@@ -4350,17 +4399,17 @@
         <v>5</v>
       </c>
       <c r="E27" s="16">
-        <v>180000</v>
+        <v>148676.13597186789</v>
       </c>
       <c r="F27" s="16">
-        <v>3000</v>
+        <v>2477.9355995311316</v>
       </c>
       <c r="G27" s="49">
         <v>2</v>
       </c>
       <c r="H27" s="49">
         <f>G27*E27</f>
-        <v>360000</v>
+        <v>297352.27194373577</v>
       </c>
       <c r="I27" s="49">
         <f>G27</f>
@@ -4368,11 +4417,11 @@
       </c>
       <c r="J27" s="50">
         <f>I27*F27</f>
-        <v>6000</v>
+        <v>4955.8711990622633</v>
       </c>
       <c r="K27" s="50">
         <f>J27+H27</f>
-        <v>366000</v>
+        <v>302308.14314279804</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4384,8 +4433,12 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -4406,17 +4459,17 @@
         <v>5</v>
       </c>
       <c r="E29" s="16">
-        <v>12000</v>
+        <v>9911.7423981245265</v>
       </c>
       <c r="F29" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G29" s="49">
         <v>4</v>
       </c>
       <c r="H29" s="49">
         <f>G29*E29</f>
-        <v>48000</v>
+        <v>39646.969592498106</v>
       </c>
       <c r="I29" s="49">
         <f>G29</f>
@@ -4424,11 +4477,11 @@
       </c>
       <c r="J29" s="50">
         <f>I29*F29</f>
-        <v>4000</v>
+        <v>3303.9141327081752</v>
       </c>
       <c r="K29" s="50">
         <f>J29+H29</f>
-        <v>52000</v>
+        <v>42950.88372520628</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4445,17 +4498,17 @@
         <v>5</v>
       </c>
       <c r="E30" s="16">
-        <v>12000</v>
+        <v>9911.7423981245265</v>
       </c>
       <c r="F30" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G30" s="49">
         <v>4</v>
       </c>
       <c r="H30" s="49">
         <f t="shared" ref="H30:H32" si="0">G30*E30</f>
-        <v>48000</v>
+        <v>39646.969592498106</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" ref="I30:I32" si="1">G30</f>
@@ -4463,11 +4516,11 @@
       </c>
       <c r="J30" s="50">
         <f t="shared" ref="J30:J32" si="2">I30*F30</f>
-        <v>4000</v>
+        <v>3303.9141327081752</v>
       </c>
       <c r="K30" s="50">
         <f t="shared" ref="K30:K32" si="3">J30+H30</f>
-        <v>52000</v>
+        <v>42950.88372520628</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -4484,17 +4537,17 @@
         <v>5</v>
       </c>
       <c r="E31" s="16">
-        <v>25000</v>
+        <v>20649.463329426097</v>
       </c>
       <c r="F31" s="16">
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="G31" s="49">
         <v>2</v>
       </c>
       <c r="H31" s="49">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>41298.926658852193</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -4502,11 +4555,11 @@
       </c>
       <c r="J31" s="50">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>3303.9141327081752</v>
       </c>
       <c r="K31" s="50">
         <f t="shared" si="3"/>
-        <v>54000</v>
+        <v>44602.840791560368</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -4523,17 +4576,17 @@
         <v>5</v>
       </c>
       <c r="E32" s="16">
-        <v>27500</v>
+        <v>22714.409662368707</v>
       </c>
       <c r="F32" s="16">
-        <v>5000</v>
+        <v>4129.8926658852197</v>
       </c>
       <c r="G32" s="49">
         <v>2</v>
       </c>
       <c r="H32" s="49">
         <f t="shared" si="0"/>
-        <v>55000</v>
+        <v>45428.819324737415</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -4541,20 +4594,20 @@
       </c>
       <c r="J32" s="50">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="K32" s="50">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>53688.604656507858</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -4564,12 +4617,12 @@
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4609,17 +4662,17 @@
         <v>21</v>
       </c>
       <c r="E36" s="16">
-        <v>490</v>
+        <v>404.72948125675146</v>
       </c>
       <c r="F36" s="16">
-        <v>80</v>
+        <v>66.078282654163502</v>
       </c>
       <c r="G36" s="49">
         <v>3344</v>
       </c>
       <c r="H36" s="49">
         <f t="shared" ref="H36:H37" si="4">G36*E36</f>
-        <v>1638560</v>
+        <v>1353415.3853225769</v>
       </c>
       <c r="I36" s="49">
         <f t="shared" ref="I36:I37" si="5">G36</f>
@@ -4627,11 +4680,11 @@
       </c>
       <c r="J36" s="50">
         <f t="shared" ref="J36:J37" si="6">I36*F36</f>
-        <v>267520</v>
+        <v>220965.77719552274</v>
       </c>
       <c r="K36" s="50">
         <f t="shared" ref="K36:K37" si="7">J36+H36</f>
-        <v>1906080</v>
+        <v>1574381.1625180996</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4648,10 +4701,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="16">
-        <v>490</v>
+        <v>404.72948125675146</v>
       </c>
       <c r="F37" s="16">
-        <v>80</v>
+        <v>66.078282654163502</v>
       </c>
       <c r="G37" s="49">
         <v>0</v>
@@ -4682,8 +4735,12 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
@@ -4704,17 +4761,17 @@
         <v>24</v>
       </c>
       <c r="E39" s="16">
-        <v>7000</v>
+        <v>5781.8497322393068</v>
       </c>
       <c r="F39" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G39" s="49">
         <v>1</v>
       </c>
       <c r="H39" s="49">
         <f t="shared" ref="H39:H40" si="8">G39*E39</f>
-        <v>7000</v>
+        <v>5781.8497322393068</v>
       </c>
       <c r="I39" s="49">
         <f t="shared" ref="I39:I40" si="9">G39</f>
@@ -4722,11 +4779,11 @@
       </c>
       <c r="J39" s="50">
         <f t="shared" ref="J39:J40" si="10">I39*F39</f>
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="K39" s="50">
         <f t="shared" ref="K39:K40" si="11">J39+H39</f>
-        <v>8000</v>
+        <v>6607.8282654163504</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4743,17 +4800,17 @@
         <v>24</v>
       </c>
       <c r="E40" s="16">
-        <v>7000</v>
+        <v>5781.8497322393068</v>
       </c>
       <c r="F40" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G40" s="49">
         <v>1</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>5781.8497322393068</v>
       </c>
       <c r="I40" s="49">
         <f t="shared" si="9"/>
@@ -4761,11 +4818,11 @@
       </c>
       <c r="J40" s="50">
         <f t="shared" si="10"/>
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="K40" s="50">
         <f t="shared" si="11"/>
-        <v>8000</v>
+        <v>6607.8282654163504</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -4782,17 +4839,17 @@
         <v>21</v>
       </c>
       <c r="E41" s="16">
-        <v>580</v>
+        <v>479.06754924268546</v>
       </c>
       <c r="F41" s="16">
-        <v>60</v>
+        <v>49.558711990622626</v>
       </c>
       <c r="G41" s="49">
         <v>3344</v>
       </c>
       <c r="H41" s="49">
         <f>G41*E41</f>
-        <v>1939520</v>
+        <v>1602001.8846675402</v>
       </c>
       <c r="I41" s="49">
         <f>G41</f>
@@ -4800,11 +4857,11 @@
       </c>
       <c r="J41" s="50">
         <f>I41*F41</f>
-        <v>200640</v>
+        <v>165724.33289664207</v>
       </c>
       <c r="K41" s="50">
         <f>J41+H41</f>
-        <v>2140160</v>
+        <v>1767726.2175641824</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -4816,8 +4873,12 @@
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -4831,8 +4892,12 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -4848,8 +4913,12 @@
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
@@ -4870,17 +4939,17 @@
         <v>5</v>
       </c>
       <c r="E45" s="16">
-        <v>4500</v>
+        <v>3716.9033992966974</v>
       </c>
       <c r="F45" s="16">
-        <v>750</v>
+        <v>619.48389988278291</v>
       </c>
       <c r="G45" s="49">
         <v>6</v>
       </c>
       <c r="H45" s="49">
         <f t="shared" ref="H45:H46" si="12">G45*E45</f>
-        <v>27000</v>
+        <v>22301.420395780184</v>
       </c>
       <c r="I45" s="49">
         <f t="shared" ref="I45:I46" si="13">G45</f>
@@ -4888,11 +4957,11 @@
       </c>
       <c r="J45" s="50">
         <f t="shared" ref="J45:J46" si="14">I45*F45</f>
-        <v>4500</v>
+        <v>3716.9033992966974</v>
       </c>
       <c r="K45" s="50">
         <f t="shared" ref="K45:K46" si="15">J45+H45</f>
-        <v>31500</v>
+        <v>26018.323795076882</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4909,17 +4978,17 @@
         <v>5</v>
       </c>
       <c r="E46" s="16">
-        <v>7500</v>
+        <v>6194.8389988278286</v>
       </c>
       <c r="F46" s="16">
-        <v>750</v>
+        <v>619.48389988278291</v>
       </c>
       <c r="G46" s="49">
         <v>26</v>
       </c>
       <c r="H46" s="49">
         <f t="shared" si="12"/>
-        <v>195000</v>
+        <v>161065.81396952353</v>
       </c>
       <c r="I46" s="49">
         <f t="shared" si="13"/>
@@ -4927,11 +4996,11 @@
       </c>
       <c r="J46" s="50">
         <f t="shared" si="14"/>
-        <v>19500</v>
+        <v>16106.581396952355</v>
       </c>
       <c r="K46" s="50">
         <f t="shared" si="15"/>
-        <v>214500</v>
+        <v>177172.39536647589</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -4943,8 +5012,12 @@
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -4965,17 +5038,17 @@
         <v>24</v>
       </c>
       <c r="E48" s="16">
-        <v>13500</v>
+        <v>11150.710197890092</v>
       </c>
       <c r="F48" s="16">
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="G48" s="49">
         <v>6</v>
       </c>
       <c r="H48" s="49">
         <f t="shared" ref="H48:H49" si="16">G48*E48</f>
-        <v>81000</v>
+        <v>66904.261187340555</v>
       </c>
       <c r="I48" s="49">
         <f t="shared" ref="I48:I49" si="17">G48</f>
@@ -4983,11 +5056,11 @@
       </c>
       <c r="J48" s="50">
         <f t="shared" ref="J48:J49" si="18">I48*F48</f>
-        <v>12000</v>
+        <v>9911.7423981245265</v>
       </c>
       <c r="K48" s="50">
         <f t="shared" ref="K48:K49" si="19">J48+H48</f>
-        <v>93000</v>
+        <v>76816.003585465078</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5004,17 +5077,17 @@
         <v>24</v>
       </c>
       <c r="E49" s="16">
-        <v>9250</v>
+        <v>7640.3014318876558</v>
       </c>
       <c r="F49" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G49" s="49">
         <v>2</v>
       </c>
       <c r="H49" s="49">
         <f t="shared" si="16"/>
-        <v>18500</v>
+        <v>15280.602863775312</v>
       </c>
       <c r="I49" s="49">
         <f t="shared" si="17"/>
@@ -5022,11 +5095,11 @@
       </c>
       <c r="J49" s="50">
         <f t="shared" si="18"/>
-        <v>2000</v>
+        <v>1651.9570663540876</v>
       </c>
       <c r="K49" s="50">
         <f t="shared" si="19"/>
-        <v>20500</v>
+        <v>16932.559930129399</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5038,8 +5111,12 @@
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
@@ -5060,10 +5137,10 @@
         <v>24</v>
       </c>
       <c r="E51" s="16">
-        <v>9800</v>
+        <v>8094.5896251350296</v>
       </c>
       <c r="F51" s="16">
-        <v>1000</v>
+        <v>825.9785331770438</v>
       </c>
       <c r="G51" s="49">
         <v>0</v>
@@ -5086,12 +5163,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -5101,12 +5178,12 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="113" t="s">
+      <c r="A53" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5129,10 +5206,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="16">
-        <v>27000</v>
+        <v>22301.420395780184</v>
       </c>
       <c r="F54" s="16">
-        <v>3000</v>
+        <v>2477.9355995311316</v>
       </c>
       <c r="G54" s="49">
         <v>0</v>
@@ -5168,17 +5245,17 @@
         <v>32</v>
       </c>
       <c r="E55" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="F55" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="G55" s="49">
         <v>1</v>
       </c>
       <c r="H55" s="49">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="I55" s="49">
         <f t="shared" si="21"/>
@@ -5186,11 +5263,11 @@
       </c>
       <c r="J55" s="50">
         <f t="shared" si="22"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="K55" s="50">
         <f t="shared" si="23"/>
-        <v>20000</v>
+        <v>16519.570663540879</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -5207,17 +5284,17 @@
         <v>32</v>
       </c>
       <c r="E56" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="F56" s="16">
-        <v>5000</v>
+        <v>4129.8926658852197</v>
       </c>
       <c r="G56" s="49">
         <v>1</v>
       </c>
       <c r="H56" s="49">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="I56" s="49">
         <f t="shared" si="21"/>
@@ -5225,11 +5302,11 @@
       </c>
       <c r="J56" s="50">
         <f t="shared" si="22"/>
-        <v>5000</v>
+        <v>4129.8926658852197</v>
       </c>
       <c r="K56" s="50">
         <f t="shared" si="23"/>
-        <v>15000</v>
+        <v>12389.677997655659</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5246,17 +5323,17 @@
         <v>32</v>
       </c>
       <c r="E57" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="F57" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="G57" s="49">
         <v>1</v>
       </c>
       <c r="H57" s="49">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="I57" s="49">
         <f t="shared" si="21"/>
@@ -5264,11 +5341,11 @@
       </c>
       <c r="J57" s="50">
         <f t="shared" si="22"/>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="K57" s="50">
         <f t="shared" si="23"/>
-        <v>20000</v>
+        <v>16519.570663540879</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.2">
@@ -5285,17 +5362,17 @@
         <v>32</v>
       </c>
       <c r="E58" s="16">
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="F58" s="16">
-        <v>15000</v>
+        <v>12389.677997655657</v>
       </c>
       <c r="G58" s="49">
         <v>1</v>
       </c>
       <c r="H58" s="49">
         <f>G58*E58</f>
-        <v>10000</v>
+        <v>8259.7853317704394</v>
       </c>
       <c r="I58" s="49">
         <f>G58</f>
@@ -5303,11 +5380,11 @@
       </c>
       <c r="J58" s="50">
         <f>I58*F58</f>
-        <v>15000</v>
+        <v>12389.677997655657</v>
       </c>
       <c r="K58" s="50">
         <f>J58+H58</f>
-        <v>25000</v>
+        <v>20649.463329426097</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -5348,12 +5425,12 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="111"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -5363,25 +5440,25 @@
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="118"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
     </row>
     <row r="62" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="109"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="7"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5390,7 +5467,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="20">
         <f>SUM(K7:K59)</f>
-        <v>5875840</v>
+        <v>4853317.7043829998</v>
       </c>
     </row>
     <row r="65" spans="6:14" x14ac:dyDescent="0.2">
@@ -5464,16 +5541,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:F5"/>
     <mergeCell ref="G4:K4"/>
@@ -5481,9 +5548,19 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:K61"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="79" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5491,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575ABACB-5F9D-4B06-B65D-8E17CB415728}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:K48"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -5511,48 +5588,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="95" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="98" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="100" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="106"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
@@ -5577,15 +5654,15 @@
       <c r="J3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="103"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -5608,17 +5685,17 @@
         <v>66</v>
       </c>
       <c r="E5" s="16">
-        <v>27000</v>
+        <v>21900.51</v>
       </c>
       <c r="F5" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G5" s="49">
         <v>2</v>
       </c>
       <c r="H5" s="49">
         <f>G5*E5</f>
-        <v>54000</v>
+        <v>43801.02</v>
       </c>
       <c r="I5" s="49">
         <f>G5</f>
@@ -5626,11 +5703,11 @@
       </c>
       <c r="J5" s="50">
         <f>I5*F5</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K5" s="50">
         <f>J5+H5</f>
-        <v>55000</v>
+        <v>44612.149999999994</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5647,17 +5724,17 @@
         <v>66</v>
       </c>
       <c r="E6" s="16">
-        <v>16250</v>
+        <v>13180.862499999999</v>
       </c>
       <c r="F6" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G6" s="49">
         <v>4</v>
       </c>
       <c r="H6" s="49">
         <f>G6*E6</f>
-        <v>65000</v>
+        <v>52723.45</v>
       </c>
       <c r="I6" s="49">
         <f>G6</f>
@@ -5665,20 +5742,20 @@
       </c>
       <c r="J6" s="50">
         <f>I6*F6</f>
-        <v>2000</v>
+        <v>1622.26</v>
       </c>
       <c r="K6" s="50">
         <f>J6+H6</f>
-        <v>67000</v>
+        <v>54345.71</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -5688,12 +5765,12 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -5716,17 +5793,17 @@
         <v>66</v>
       </c>
       <c r="E9" s="16">
-        <v>4250</v>
+        <v>3447.3024999999998</v>
       </c>
       <c r="F9" s="16">
-        <v>600</v>
+        <v>486.678</v>
       </c>
       <c r="G9" s="49">
         <v>13</v>
       </c>
       <c r="H9" s="49">
         <f>G9*E9</f>
-        <v>55250</v>
+        <v>44814.932499999995</v>
       </c>
       <c r="I9" s="49">
         <f>G9</f>
@@ -5734,11 +5811,11 @@
       </c>
       <c r="J9" s="50">
         <f>I9*F9</f>
-        <v>7800</v>
+        <v>6326.8140000000003</v>
       </c>
       <c r="K9" s="50">
         <f>J9+H9</f>
-        <v>63050</v>
+        <v>51141.746499999994</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
@@ -5755,17 +5832,17 @@
         <v>66</v>
       </c>
       <c r="E10" s="16">
-        <v>3150</v>
+        <v>2555.0594999999998</v>
       </c>
       <c r="F10" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G10" s="49">
         <v>101</v>
       </c>
       <c r="H10" s="49">
         <f>G10*E10</f>
-        <v>318150</v>
+        <v>258061.00949999999</v>
       </c>
       <c r="I10" s="49">
         <f>G10</f>
@@ -5773,20 +5850,20 @@
       </c>
       <c r="J10" s="50">
         <f>I10*F10</f>
-        <v>50500</v>
+        <v>40962.065000000002</v>
       </c>
       <c r="K10" s="50">
         <f>J10+H10</f>
-        <v>368650</v>
+        <v>299023.07449999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -5796,12 +5873,12 @@
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -5841,17 +5918,17 @@
         <v>77</v>
       </c>
       <c r="E14" s="16">
-        <v>650</v>
+        <v>527.23450000000003</v>
       </c>
       <c r="F14" s="16">
-        <v>150</v>
+        <v>121.6695</v>
       </c>
       <c r="G14" s="49">
         <v>900</v>
       </c>
       <c r="H14" s="49">
         <f t="shared" ref="H14:H19" si="0">G14*E14</f>
-        <v>585000</v>
+        <v>474511.05000000005</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ref="I14:I19" si="1">G14</f>
@@ -5859,11 +5936,11 @@
       </c>
       <c r="J14" s="50">
         <f t="shared" ref="J14:J19" si="2">I14*F14</f>
-        <v>135000</v>
+        <v>109502.55</v>
       </c>
       <c r="K14" s="50">
         <f t="shared" ref="K14:K19" si="3">J14+H14</f>
-        <v>720000</v>
+        <v>584013.60000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5880,17 +5957,17 @@
         <v>77</v>
       </c>
       <c r="E15" s="16">
-        <v>875</v>
+        <v>709.73874999999998</v>
       </c>
       <c r="F15" s="16">
-        <v>200</v>
+        <v>162.226</v>
       </c>
       <c r="G15" s="49">
         <v>35</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="0"/>
-        <v>30625</v>
+        <v>24840.856250000001</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" si="1"/>
@@ -5898,11 +5975,11 @@
       </c>
       <c r="J15" s="50">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5677.91</v>
       </c>
       <c r="K15" s="50">
         <f t="shared" si="3"/>
-        <v>37625</v>
+        <v>30518.766250000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5919,17 +5996,17 @@
         <v>77</v>
       </c>
       <c r="E16" s="16">
-        <v>990</v>
+        <v>803.01869999999997</v>
       </c>
       <c r="F16" s="16">
-        <v>250</v>
+        <v>202.7825</v>
       </c>
       <c r="G16" s="49">
         <v>195</v>
       </c>
       <c r="H16" s="49">
         <f t="shared" si="0"/>
-        <v>193050</v>
+        <v>156588.6465</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" si="1"/>
@@ -5937,11 +6014,11 @@
       </c>
       <c r="J16" s="50">
         <f t="shared" si="2"/>
-        <v>48750</v>
+        <v>39542.587500000001</v>
       </c>
       <c r="K16" s="50">
         <f t="shared" si="3"/>
-        <v>241800</v>
+        <v>196131.234</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5958,17 +6035,17 @@
         <v>77</v>
       </c>
       <c r="E17" s="16">
-        <v>1275</v>
+        <v>1034.19075</v>
       </c>
       <c r="F17" s="16">
-        <v>300</v>
+        <v>243.339</v>
       </c>
       <c r="G17" s="49">
         <v>40</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>41367.629999999997</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="1"/>
@@ -5976,11 +6053,11 @@
       </c>
       <c r="J17" s="50">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>9733.56</v>
       </c>
       <c r="K17" s="50">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>51101.189999999995</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -5997,17 +6074,17 @@
         <v>77</v>
       </c>
       <c r="E18" s="16">
-        <v>1815</v>
+        <v>1472.2009499999999</v>
       </c>
       <c r="F18" s="16">
-        <v>350</v>
+        <v>283.89549999999997</v>
       </c>
       <c r="G18" s="49">
         <v>87</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="0"/>
-        <v>157905</v>
+        <v>128081.48264999999</v>
       </c>
       <c r="I18" s="49">
         <f t="shared" si="1"/>
@@ -6015,11 +6092,11 @@
       </c>
       <c r="J18" s="50">
         <f t="shared" si="2"/>
-        <v>30450</v>
+        <v>24698.908499999998</v>
       </c>
       <c r="K18" s="50">
         <f t="shared" si="3"/>
-        <v>188355</v>
+        <v>152780.39114999998</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6036,17 +6113,17 @@
         <v>77</v>
       </c>
       <c r="E19" s="16">
-        <v>2370</v>
+        <v>1922.3780999999999</v>
       </c>
       <c r="F19" s="16">
-        <v>400</v>
+        <v>324.452</v>
       </c>
       <c r="G19" s="49">
         <v>260</v>
       </c>
       <c r="H19" s="49">
         <f t="shared" si="0"/>
-        <v>616200</v>
+        <v>499818.30599999998</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="1"/>
@@ -6054,11 +6131,11 @@
       </c>
       <c r="J19" s="50">
         <f t="shared" si="2"/>
-        <v>104000</v>
+        <v>84357.52</v>
       </c>
       <c r="K19" s="50">
         <f t="shared" si="3"/>
-        <v>720200</v>
+        <v>584175.826</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>124</v>
@@ -6098,10 +6175,10 @@
         <v>90</v>
       </c>
       <c r="E21" s="16">
-        <v>58000</v>
+        <v>47045.54</v>
       </c>
       <c r="F21" s="16">
-        <v>2000</v>
+        <v>1622.26</v>
       </c>
       <c r="G21" s="49">
         <v>0</v>
@@ -6171,17 +6248,17 @@
         <v>90</v>
       </c>
       <c r="E24" s="16">
-        <v>16300</v>
+        <v>13221.419</v>
       </c>
       <c r="F24" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G24" s="49">
         <v>1</v>
       </c>
       <c r="H24" s="49">
         <f>G24*E24</f>
-        <v>16300</v>
+        <v>13221.419</v>
       </c>
       <c r="I24" s="49">
         <f>G24</f>
@@ -6189,11 +6266,11 @@
       </c>
       <c r="J24" s="50">
         <f>I24*F24</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K24" s="50">
         <f>J24+H24</f>
-        <v>17300</v>
+        <v>14032.548999999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6210,17 +6287,17 @@
         <v>90</v>
       </c>
       <c r="E25" s="16">
-        <v>16500</v>
+        <v>13383.645</v>
       </c>
       <c r="F25" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G25" s="49">
         <v>1</v>
       </c>
       <c r="H25" s="49">
         <f>G25*E25</f>
-        <v>16500</v>
+        <v>13383.645</v>
       </c>
       <c r="I25" s="49">
         <f>G25</f>
@@ -6228,11 +6305,11 @@
       </c>
       <c r="J25" s="50">
         <f>I25*F25</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K25" s="50">
         <f>J25+H25</f>
-        <v>17500</v>
+        <v>14194.775</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6249,17 +6326,17 @@
         <v>90</v>
       </c>
       <c r="E26" s="16">
-        <v>17500</v>
+        <v>14194.775</v>
       </c>
       <c r="F26" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G26" s="49">
         <v>1</v>
       </c>
       <c r="H26" s="49">
         <f>G26*E26</f>
-        <v>17500</v>
+        <v>14194.775</v>
       </c>
       <c r="I26" s="49">
         <f>G26</f>
@@ -6267,11 +6344,11 @@
       </c>
       <c r="J26" s="50">
         <f>I26*F26</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K26" s="50">
         <f>J26+H26</f>
-        <v>18500</v>
+        <v>15005.904999999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6288,17 +6365,17 @@
         <v>66</v>
       </c>
       <c r="E27" s="16">
-        <v>17650</v>
+        <v>14316.4445</v>
       </c>
       <c r="F27" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G27" s="49">
         <v>3</v>
       </c>
       <c r="H27" s="49">
         <f>G27*E27</f>
-        <v>52950</v>
+        <v>42949.333500000001</v>
       </c>
       <c r="I27" s="49">
         <f>G27</f>
@@ -6306,11 +6383,11 @@
       </c>
       <c r="J27" s="50">
         <f>I27*F27</f>
-        <v>3000</v>
+        <v>2433.39</v>
       </c>
       <c r="K27" s="50">
         <f>J27+H27</f>
-        <v>55950</v>
+        <v>45382.7235</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6344,17 +6421,17 @@
         <v>90</v>
       </c>
       <c r="E29" s="16">
-        <v>20500</v>
+        <v>16628.165000000001</v>
       </c>
       <c r="F29" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G29" s="49">
         <v>1</v>
       </c>
       <c r="H29" s="49">
         <f>G29*E29</f>
-        <v>20500</v>
+        <v>16628.165000000001</v>
       </c>
       <c r="I29" s="49">
         <f>G29</f>
@@ -6362,11 +6439,11 @@
       </c>
       <c r="J29" s="50">
         <f>I29*F29</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K29" s="50">
         <f>J29+H29</f>
-        <v>21500</v>
+        <v>17439.295000000002</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6383,17 +6460,17 @@
         <v>90</v>
       </c>
       <c r="E30" s="16">
-        <v>21250</v>
+        <v>17236.512500000001</v>
       </c>
       <c r="F30" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G30" s="49">
         <v>1</v>
       </c>
       <c r="H30" s="49">
         <f>G30*E30</f>
-        <v>21250</v>
+        <v>17236.512500000001</v>
       </c>
       <c r="I30" s="49">
         <f>G30</f>
@@ -6401,11 +6478,11 @@
       </c>
       <c r="J30" s="50">
         <f>I30*F30</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K30" s="50">
         <f>J30+H30</f>
-        <v>22250</v>
+        <v>18047.642500000002</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6422,17 +6499,17 @@
         <v>90</v>
       </c>
       <c r="E31" s="16">
-        <v>22222</v>
+        <v>18024.93086</v>
       </c>
       <c r="F31" s="16">
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="G31" s="49">
         <v>1</v>
       </c>
       <c r="H31" s="49">
         <f>G31*E31</f>
-        <v>22222</v>
+        <v>18024.93086</v>
       </c>
       <c r="I31" s="49">
         <f>G31</f>
@@ -6440,11 +6517,11 @@
       </c>
       <c r="J31" s="50">
         <f>I31*F31</f>
-        <v>1000</v>
+        <v>811.13</v>
       </c>
       <c r="K31" s="50">
         <f>J31+H31</f>
-        <v>23222</v>
+        <v>18836.060860000001</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6456,8 +6533,12 @@
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -6478,17 +6559,17 @@
         <v>66</v>
       </c>
       <c r="E33" s="16">
-        <v>6000</v>
+        <v>4866.78</v>
       </c>
       <c r="F33" s="16">
-        <v>1500</v>
+        <v>1216.6949999999999</v>
       </c>
       <c r="G33" s="49">
         <v>13</v>
       </c>
       <c r="H33" s="49">
         <f>G33*E33</f>
-        <v>78000</v>
+        <v>63268.14</v>
       </c>
       <c r="I33" s="49">
         <f>G33</f>
@@ -6496,11 +6577,11 @@
       </c>
       <c r="J33" s="50">
         <f>I33*F33</f>
-        <v>19500</v>
+        <v>15817.035</v>
       </c>
       <c r="K33" s="50">
         <f>J33+H33</f>
-        <v>97500</v>
+        <v>79085.175000000003</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6517,17 +6598,17 @@
         <v>66</v>
       </c>
       <c r="E34" s="16">
-        <v>6250</v>
+        <v>5069.5625</v>
       </c>
       <c r="F34" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G34" s="49">
         <v>12</v>
       </c>
       <c r="H34" s="49">
         <f>G34*E34</f>
-        <v>75000</v>
+        <v>60834.75</v>
       </c>
       <c r="I34" s="49">
         <f>G34</f>
@@ -6535,11 +6616,11 @@
       </c>
       <c r="J34" s="50">
         <f>I34*F34</f>
-        <v>6000</v>
+        <v>4866.78</v>
       </c>
       <c r="K34" s="50">
         <f>J34+H34</f>
-        <v>81000</v>
+        <v>65701.53</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6556,17 +6637,17 @@
         <v>66</v>
       </c>
       <c r="E35" s="16">
-        <v>6500</v>
+        <v>5272.3450000000003</v>
       </c>
       <c r="F35" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G35" s="49">
         <v>3</v>
       </c>
       <c r="H35" s="49">
         <f>G35*E35</f>
-        <v>19500</v>
+        <v>15817.035</v>
       </c>
       <c r="I35" s="49">
         <f>G35</f>
@@ -6574,11 +6655,11 @@
       </c>
       <c r="J35" s="50">
         <f>I35*F35</f>
-        <v>1500</v>
+        <v>1216.6949999999999</v>
       </c>
       <c r="K35" s="50">
         <f>J35+H35</f>
-        <v>21000</v>
+        <v>17033.73</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6595,17 +6676,17 @@
         <v>90</v>
       </c>
       <c r="E36" s="16">
-        <v>7200</v>
+        <v>5840.1360000000004</v>
       </c>
       <c r="F36" s="16">
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="G36" s="49">
         <v>1</v>
       </c>
       <c r="H36" s="49">
         <f>G36*E36</f>
-        <v>7200</v>
+        <v>5840.1360000000004</v>
       </c>
       <c r="I36" s="49">
         <f>G36</f>
@@ -6613,20 +6694,20 @@
       </c>
       <c r="J36" s="50">
         <f>I36*F36</f>
-        <v>500</v>
+        <v>405.565</v>
       </c>
       <c r="K36" s="50">
         <f>J36+H36</f>
-        <v>7700</v>
+        <v>6245.701</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="127"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -6636,12 +6717,12 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -6664,17 +6745,17 @@
         <v>104</v>
       </c>
       <c r="E39" s="16">
-        <v>20000</v>
+        <v>16222.6</v>
       </c>
       <c r="F39" s="16">
-        <v>8000</v>
+        <v>6489.04</v>
       </c>
       <c r="G39" s="49">
         <v>1</v>
       </c>
       <c r="H39" s="49">
         <f>G39*E39</f>
-        <v>20000</v>
+        <v>16222.6</v>
       </c>
       <c r="I39" s="49">
         <f>G39</f>
@@ -6682,20 +6763,20 @@
       </c>
       <c r="J39" s="50">
         <f>I39*F39</f>
-        <v>8000</v>
+        <v>6489.04</v>
       </c>
       <c r="K39" s="50">
         <f>J39+H39</f>
-        <v>28000</v>
+        <v>22711.64</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="127"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -6705,12 +6786,12 @@
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -6733,17 +6814,17 @@
         <v>104</v>
       </c>
       <c r="E42" s="16">
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="F42" s="16">
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="G42" s="49">
         <v>1</v>
       </c>
       <c r="H42" s="49">
         <f>G42*E42</f>
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="I42" s="49">
         <f>G42</f>
@@ -6751,11 +6832,11 @@
       </c>
       <c r="J42" s="50">
         <f>I42*F42</f>
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="K42" s="50">
         <f>J42+H42</f>
-        <v>20000</v>
+        <v>16222.6</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
@@ -6772,17 +6853,17 @@
         <v>104</v>
       </c>
       <c r="E43" s="16">
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="F43" s="16">
-        <v>15000</v>
+        <v>12166.95</v>
       </c>
       <c r="G43" s="49">
         <v>1</v>
       </c>
       <c r="H43" s="49">
         <f>G43*E43</f>
-        <v>10000</v>
+        <v>8111.3</v>
       </c>
       <c r="I43" s="49">
         <f>G43</f>
@@ -6790,11 +6871,11 @@
       </c>
       <c r="J43" s="50">
         <f>I43*F43</f>
-        <v>15000</v>
+        <v>12166.95</v>
       </c>
       <c r="K43" s="50">
         <f>J43+H43</f>
-        <v>25000</v>
+        <v>20278.25</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -6811,17 +6892,17 @@
         <v>104</v>
       </c>
       <c r="E44" s="16">
-        <v>45000</v>
+        <v>36500.85</v>
       </c>
       <c r="F44" s="16">
-        <v>55000</v>
+        <v>44612.15</v>
       </c>
       <c r="G44" s="49">
         <v>1</v>
       </c>
       <c r="H44" s="49">
         <f>G44*E44</f>
-        <v>45000</v>
+        <v>36500.85</v>
       </c>
       <c r="I44" s="49">
         <f>G44</f>
@@ -6829,11 +6910,11 @@
       </c>
       <c r="J44" s="50">
         <f>I44*F44</f>
-        <v>55000</v>
+        <v>44612.15</v>
       </c>
       <c r="K44" s="50">
         <f>J44+H44</f>
-        <v>100000</v>
+        <v>81113</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
@@ -6850,17 +6931,17 @@
         <v>104</v>
       </c>
       <c r="E45" s="16">
-        <v>15000</v>
+        <v>12166.95</v>
       </c>
       <c r="F45" s="16">
-        <v>20000</v>
+        <v>16222.6</v>
       </c>
       <c r="G45" s="49">
         <v>1</v>
       </c>
       <c r="H45" s="49">
         <f>G45*E45</f>
-        <v>15000</v>
+        <v>12166.95</v>
       </c>
       <c r="I45" s="49">
         <f>G45</f>
@@ -6868,11 +6949,11 @@
       </c>
       <c r="J45" s="50">
         <f>I45*F45</f>
-        <v>20000</v>
+        <v>16222.6</v>
       </c>
       <c r="K45" s="50">
         <f>J45+H45</f>
-        <v>35000</v>
+        <v>28389.550000000003</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="29" customFormat="1" ht="63" x14ac:dyDescent="0.2">
@@ -6888,8 +6969,12 @@
       <c r="D46" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
       <c r="G46" s="49"/>
       <c r="H46" s="49">
         <f>G46*E46</f>
@@ -6909,12 +6994,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
@@ -6924,25 +7009,25 @@
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="136"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="122"/>
     </row>
     <row r="49" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="119" t="s">
+      <c r="A49" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="24"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -6951,7 +7036,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="20">
         <f>SUM(K4:K46)</f>
-        <v>3116102</v>
+        <v>2527563.8152599996</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -6973,13 +7058,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
@@ -6992,6 +7070,13 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
